--- a/Excel/dalayBtCy.日常副本.xlsx
+++ b/Excel/dalayBtCy.日常副本.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CAC35E-F808-40A2-A5FD-21B6EECB2C9C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCEEF99-259B-4E7C-9317-19924F7A896B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -22,124 +22,124 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="134">
   <si>
     <t>sheet名</t>
   </si>
   <si>
     <t>导出客户端文件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>导出服务端文件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
   </si>
   <si>
     <t>是否导出</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>屏蔽字段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>表注释</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>rowId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>float:e&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>行ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>unlockLv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>解锁等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>#note</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>maidenAward[1].id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>maidenAward[1].valw</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>maidenAward[1].valv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>maidenAward[2].id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>maidenAward[2].valw</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>maidenAward[2].valv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>maidenAward[3].id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>maidenAward[3].valw</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>maidenAward[3].valv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sweepAward[1].id</t>
@@ -161,23 +161,23 @@
   </si>
   <si>
     <t>sweepAward[3].id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sweepAward[3].valw</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sweepAward[3].valv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>item_id:e&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>item_id:e&lt;&gt;</t>
@@ -190,15 +190,15 @@
   </si>
   <si>
     <t>首通奖励ID1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>首通奖励权重1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>首通奖励值1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>首通奖励ID2</t>
@@ -211,79 +211,79 @@
   </si>
   <si>
     <t>首通奖励ID3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>首通奖励权重3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>首通奖励值3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>cost</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>行ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>times</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>unlockLevel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>showLevel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int:a&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>次数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>消耗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>解锁关卡等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>显示关卡等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>金币本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>智慧机体本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>核子精华本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>精炼纤维本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -299,23 +299,23 @@
       </rPr>
       <t>,0,20</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>0,0,35</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>0,0,40</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>0,0,50</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>金币本-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>金币本-2</t>
@@ -352,7 +352,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -531,7 +531,7 @@
   </si>
   <si>
     <t>僚机零件本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -547,7 +547,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -738,7 +738,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -917,7 +917,7 @@
   </si>
   <si>
     <t>僚机零件本-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>僚机零件本-2</t>
@@ -942,49 +942,96 @@
   </si>
   <si>
     <t>金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>突破丹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>天命丹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>初级精炼纤维</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>中级精炼纤维</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>高级精炼纤维</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>顶级精炼纤维</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>僚机零件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>僚机零件</t>
+  </si>
+  <si>
+    <t>rankScore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级评分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chaName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>daily-jb</t>
+  </si>
+  <si>
+    <t>daily-tpd</t>
+  </si>
+  <si>
+    <t>daily-tmd</t>
+  </si>
+  <si>
+    <t>daily-jls</t>
+  </si>
+  <si>
+    <t>daily-cwd</t>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0,90,150,200</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1149,53 +1196,53 @@
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyFont="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="12" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1570,7 +1617,7 @@
       <c r="A9" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1578,36 +1625,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD4C86E-3FE1-4B15-B1FC-0EF7D34D9D28}">
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="15.375" customWidth="1"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="22.125" customWidth="1"/>
-    <col min="7" max="7" width="22.25" customWidth="1"/>
-    <col min="8" max="8" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="21.625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="25.125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="19.875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="23.75" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="23.25" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="23.25" customWidth="1"/>
-    <col min="16" max="16" width="22.25" customWidth="1"/>
-    <col min="17" max="17" width="23" customWidth="1"/>
-    <col min="18" max="18" width="21" customWidth="1"/>
-    <col min="19" max="19" width="22.5" customWidth="1"/>
-    <col min="20" max="21" width="20.625" customWidth="1"/>
-    <col min="22" max="22" width="25.625" customWidth="1"/>
-    <col min="23" max="23" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="39.5" customWidth="1"/>
+    <col min="7" max="7" width="22.125" customWidth="1"/>
+    <col min="8" max="8" width="22.25" customWidth="1"/>
+    <col min="9" max="9" width="22.375" customWidth="1"/>
+    <col min="10" max="10" width="21.625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="25.125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="19.875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="23.75" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="23.25" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="23.25" customWidth="1"/>
+    <col min="17" max="17" width="22.25" customWidth="1"/>
+    <col min="18" max="18" width="23" customWidth="1"/>
+    <col min="19" max="19" width="21" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="22.5" hidden="1" customWidth="1"/>
+    <col min="21" max="22" width="20.625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="25.625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="23.375" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -1623,62 +1672,65 @@
       <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1695,61 +1747,64 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>40</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>39</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>40</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>8</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>39</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>8</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>39</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>40</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>8</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>41</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>42</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1766,61 +1821,64 @@
         <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1837,37 +1895,40 @@
         <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>100</v>
       </c>
-      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3"/>
+      <c r="P4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="P4" s="3">
+      <c r="Q4" s="3">
         <v>1</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R4" s="3">
         <v>40</v>
       </c>
-      <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-    </row>
-    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1884,37 +1945,40 @@
         <v>50</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>500</v>
       </c>
-      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3"/>
+      <c r="P5" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="P5" s="3">
+      <c r="Q5" s="3">
         <v>1</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="R5" s="3">
         <v>200</v>
       </c>
-      <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-    </row>
-    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1931,37 +1995,40 @@
         <v>80</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>700</v>
       </c>
-      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="3"/>
+      <c r="P6" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="P6" s="3">
+      <c r="Q6" s="3">
         <v>1</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="R6" s="3">
         <v>300</v>
       </c>
-      <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-    </row>
-    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1978,37 +2045,40 @@
         <v>130</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>2</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>2.5</v>
       </c>
-      <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="3"/>
+      <c r="P7" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="P7" s="3">
+      <c r="Q7" s="3">
         <v>2</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="R7" s="3">
         <v>1</v>
       </c>
-      <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
-    </row>
-    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2025,37 +2095,40 @@
         <v>220</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15</v>
       </c>
-      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="3"/>
+      <c r="P8" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6</v>
       </c>
-      <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-    </row>
-    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2072,37 +2145,40 @@
         <v>300</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>25</v>
       </c>
-      <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="3"/>
+      <c r="P9" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10</v>
       </c>
-      <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-    </row>
-    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2119,37 +2195,40 @@
         <v>500</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>90</v>
       </c>
-      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="3"/>
+      <c r="P10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>35</v>
       </c>
-      <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-    </row>
-    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2166,37 +2245,40 @@
         <v>800</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>2</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>250</v>
       </c>
-      <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="3"/>
+      <c r="P11" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="3">
         <v>2</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="R11" s="3">
         <v>100</v>
       </c>
-      <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2213,37 +2295,40 @@
         <v>30</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>12</v>
       </c>
-      <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="3"/>
+      <c r="P12" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
       <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>5</v>
       </c>
-      <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-    </row>
-    <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2260,37 +2345,40 @@
         <v>60</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
       <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
         <v>25</v>
       </c>
-      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="3"/>
+      <c r="P13" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="P13" s="3">
-        <v>0</v>
-      </c>
       <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
         <v>10</v>
       </c>
-      <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-    </row>
-    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2307,37 +2395,40 @@
         <v>100</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>50</v>
       </c>
-      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="3"/>
+      <c r="P14" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>20</v>
       </c>
-      <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-    </row>
-    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2354,37 +2445,40 @@
         <v>150</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
       <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>62</v>
       </c>
-      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="3"/>
+      <c r="P15" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
       <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
         <v>25</v>
       </c>
-      <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-    </row>
-    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2401,37 +2495,40 @@
         <v>250</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
       <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
         <v>87</v>
       </c>
-      <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="4" t="s">
+      <c r="O16" s="3"/>
+      <c r="P16" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
       <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
         <v>35</v>
       </c>
-      <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2448,37 +2545,40 @@
         <v>350</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="4" t="s">
+      <c r="O17" s="3"/>
+      <c r="P17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>40</v>
       </c>
-      <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-    </row>
-    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2495,37 +2595,40 @@
         <v>550</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>125</v>
       </c>
-      <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="3"/>
+      <c r="P18" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>50</v>
       </c>
-      <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-    </row>
-    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2542,37 +2645,40 @@
         <v>850</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
       <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
         <v>150</v>
       </c>
-      <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="4" t="s">
+      <c r="O19" s="3"/>
+      <c r="P19" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="P19" s="3">
-        <v>0</v>
-      </c>
       <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
         <v>60</v>
       </c>
-      <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2586,40 +2692,43 @@
         <v>1</v>
       </c>
       <c r="E20" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>12</v>
       </c>
-      <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="4" t="s">
+      <c r="O20" s="3"/>
+      <c r="P20" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>5</v>
       </c>
-      <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2633,40 +2742,43 @@
         <v>2</v>
       </c>
       <c r="E21" s="3">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>25</v>
       </c>
-      <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="4" t="s">
+      <c r="O21" s="3"/>
+      <c r="P21" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>10</v>
       </c>
-      <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
-    </row>
-    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2680,40 +2792,43 @@
         <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>50</v>
       </c>
-      <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="4" t="s">
+      <c r="O22" s="3"/>
+      <c r="P22" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>20</v>
       </c>
-      <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
-    </row>
-    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2727,40 +2842,43 @@
         <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>62</v>
       </c>
-      <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="4" t="s">
+      <c r="O23" s="3"/>
+      <c r="P23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>25</v>
       </c>
-      <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
-    </row>
-    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2774,40 +2892,43 @@
         <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>87</v>
       </c>
-      <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="4" t="s">
+      <c r="O24" s="3"/>
+      <c r="P24" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>35</v>
       </c>
-      <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-    </row>
-    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -2821,40 +2942,43 @@
         <v>6</v>
       </c>
       <c r="E25" s="3">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
       <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
         <v>100</v>
       </c>
-      <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="4" t="s">
+      <c r="O25" s="3"/>
+      <c r="P25" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="P25" s="3">
-        <v>0</v>
-      </c>
       <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
         <v>40</v>
       </c>
-      <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-    </row>
-    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X25" s="3"/>
+    </row>
+    <row r="26" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -2868,40 +2992,43 @@
         <v>7</v>
       </c>
       <c r="E26" s="3">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>125</v>
       </c>
-      <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="4" t="s">
+      <c r="O26" s="3"/>
+      <c r="P26" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>50</v>
       </c>
-      <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-    </row>
-    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X26" s="3"/>
+    </row>
+    <row r="27" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -2915,40 +3042,43 @@
         <v>8</v>
       </c>
       <c r="E27" s="3">
-        <v>800</v>
+        <v>860</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>150</v>
       </c>
-      <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="4" t="s">
+      <c r="O27" s="3"/>
+      <c r="P27" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>60</v>
       </c>
-      <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-    </row>
-    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X27" s="3"/>
+    </row>
+    <row r="28" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -2962,38 +3092,43 @@
         <v>1</v>
       </c>
       <c r="E28" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>25</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="4" t="s">
+      <c r="O28" s="3"/>
+      <c r="P28" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="P28" s="3">
-        <v>0</v>
-      </c>
       <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
         <v>10</v>
       </c>
-      <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
-    </row>
-    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X28" s="3"/>
+    </row>
+    <row r="29" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -3007,38 +3142,43 @@
         <v>2</v>
       </c>
       <c r="E29" s="3">
+        <v>80</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>50</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="4" t="s">
+      <c r="O29" s="3"/>
+      <c r="P29" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>20</v>
       </c>
-      <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
-    </row>
-    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X29" s="3"/>
+    </row>
+    <row r="30" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -3052,38 +3192,43 @@
         <v>3</v>
       </c>
       <c r="E30" s="3">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>37</v>
+      </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="4" t="s">
+      <c r="O30" s="3"/>
+      <c r="P30" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P30" s="3">
-        <v>0</v>
-      </c>
       <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
         <v>15</v>
       </c>
-      <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
-    </row>
-    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X30" s="3"/>
+    </row>
+    <row r="31" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -3097,38 +3242,43 @@
         <v>4</v>
       </c>
       <c r="E31" s="3">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>62</v>
+      </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="4" t="s">
+      <c r="O31" s="3"/>
+      <c r="P31" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P31" s="3">
-        <v>0</v>
-      </c>
       <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
         <v>25</v>
       </c>
-      <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
-    </row>
-    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X31" s="3"/>
+    </row>
+    <row r="32" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -3142,38 +3292,43 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="F32" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>100</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="4" t="s">
+      <c r="O32" s="3"/>
+      <c r="P32" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>40</v>
       </c>
-      <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
-    </row>
-    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X32" s="3"/>
+    </row>
+    <row r="33" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -3187,38 +3342,43 @@
         <v>6</v>
       </c>
       <c r="E33" s="3">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="F33" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>50</v>
+      </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="4" t="s">
+      <c r="O33" s="3"/>
+      <c r="P33" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>20</v>
       </c>
-      <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
-    </row>
-    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X33" s="3"/>
+    </row>
+    <row r="34" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -3232,38 +3392,43 @@
         <v>7</v>
       </c>
       <c r="E34" s="3">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G34" s="3">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>75</v>
+      </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="4" t="s">
+      <c r="O34" s="3"/>
+      <c r="P34" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="P34" s="3">
-        <v>0</v>
-      </c>
       <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
         <v>30</v>
       </c>
-      <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
-    </row>
-    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X34" s="3"/>
+    </row>
+    <row r="35" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -3277,38 +3442,43 @@
         <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>800</v>
+        <v>870</v>
       </c>
       <c r="F35" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>50</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="4" t="s">
+      <c r="O35" s="3"/>
+      <c r="P35" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>20</v>
       </c>
-      <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
-    </row>
-    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X35" s="3"/>
+    </row>
+    <row r="36" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -3322,30 +3492,43 @@
         <v>1</v>
       </c>
       <c r="E36" s="3">
-        <v>20</v>
-      </c>
-      <c r="F36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>12</v>
+      </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
+      <c r="P36" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>0</v>
+      </c>
+      <c r="R36" s="3">
+        <v>5</v>
+      </c>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
-    </row>
-    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X36" s="3"/>
+    </row>
+    <row r="37" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -3359,30 +3542,43 @@
         <v>2</v>
       </c>
       <c r="E37" s="3">
-        <v>50</v>
-      </c>
-      <c r="F37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>25</v>
+      </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
+      <c r="P37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>0</v>
+      </c>
+      <c r="R37" s="3">
+        <v>10</v>
+      </c>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
-    </row>
-    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X37" s="3"/>
+    </row>
+    <row r="38" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -3396,30 +3592,43 @@
         <v>3</v>
       </c>
       <c r="E38" s="3">
-        <v>80</v>
-      </c>
-      <c r="F38" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>50</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
+      <c r="P38" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>0</v>
+      </c>
+      <c r="R38" s="3">
+        <v>20</v>
+      </c>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
-    </row>
-    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X38" s="3"/>
+    </row>
+    <row r="39" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -3433,30 +3642,43 @@
         <v>4</v>
       </c>
       <c r="E39" s="3">
-        <v>130</v>
-      </c>
-      <c r="F39" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>62</v>
+      </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
+      <c r="P39" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>0</v>
+      </c>
+      <c r="R39" s="3">
+        <v>25</v>
+      </c>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -3470,30 +3692,43 @@
         <v>5</v>
       </c>
       <c r="E40" s="3">
-        <v>220</v>
-      </c>
-      <c r="F40" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>87</v>
+      </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
+      <c r="P40" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>0</v>
+      </c>
+      <c r="R40" s="3">
+        <v>35</v>
+      </c>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -3507,30 +3742,43 @@
         <v>6</v>
       </c>
       <c r="E41" s="3">
-        <v>300</v>
-      </c>
-      <c r="F41" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>100</v>
+      </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
+      <c r="P41" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>40</v>
+      </c>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
-    </row>
-    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X41" s="3"/>
+    </row>
+    <row r="42" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -3544,30 +3792,43 @@
         <v>7</v>
       </c>
       <c r="E42" s="3">
-        <v>500</v>
-      </c>
-      <c r="F42" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>125</v>
+      </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
+      <c r="P42" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>50</v>
+      </c>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
-    </row>
-    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X42" s="3"/>
+    </row>
+    <row r="43" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -3581,31 +3842,44 @@
         <v>8</v>
       </c>
       <c r="E43" s="3">
-        <v>800</v>
-      </c>
-      <c r="F43" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>150</v>
+      </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
+      <c r="P43" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>60</v>
+      </c>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3613,38 +3887,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F794D778-BB92-4FA9-86D4-F7B90F08A8B6}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="9.625" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
-    <col min="15" max="15" width="22.125" customWidth="1"/>
-    <col min="16" max="16" width="22.25" customWidth="1"/>
-    <col min="17" max="17" width="22.375" customWidth="1"/>
-    <col min="18" max="18" width="21.625" customWidth="1"/>
-    <col min="19" max="19" width="25.125" customWidth="1"/>
-    <col min="20" max="20" width="23.5" customWidth="1"/>
-    <col min="21" max="21" width="19.875" customWidth="1"/>
-    <col min="22" max="22" width="23.75" customWidth="1"/>
-    <col min="23" max="24" width="23.25" customWidth="1"/>
-    <col min="25" max="25" width="22.25" customWidth="1"/>
-    <col min="26" max="26" width="23" customWidth="1"/>
-    <col min="27" max="27" width="21" customWidth="1"/>
-    <col min="28" max="28" width="22.5" customWidth="1"/>
-    <col min="29" max="30" width="20.625" customWidth="1"/>
-    <col min="31" max="31" width="25.625" customWidth="1"/>
-    <col min="32" max="32" width="23.375" customWidth="1"/>
+    <col min="3" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="16" max="16" width="22.125" customWidth="1"/>
+    <col min="17" max="17" width="22.25" customWidth="1"/>
+    <col min="18" max="18" width="22.375" customWidth="1"/>
+    <col min="19" max="19" width="21.625" customWidth="1"/>
+    <col min="20" max="20" width="25.125" customWidth="1"/>
+    <col min="21" max="21" width="23.5" customWidth="1"/>
+    <col min="22" max="22" width="19.875" customWidth="1"/>
+    <col min="23" max="23" width="23.75" customWidth="1"/>
+    <col min="24" max="25" width="23.25" customWidth="1"/>
+    <col min="26" max="26" width="22.25" customWidth="1"/>
+    <col min="27" max="27" width="23" customWidth="1"/>
+    <col min="28" max="28" width="21" customWidth="1"/>
+    <col min="29" max="29" width="22.5" customWidth="1"/>
+    <col min="30" max="31" width="20.625" customWidth="1"/>
+    <col min="32" max="32" width="25.625" customWidth="1"/>
+    <col min="33" max="33" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -3655,19 +3929,22 @@
         <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -3678,7 +3955,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
         <v>58</v>
@@ -3687,10 +3964,13 @@
         <v>58</v>
       </c>
       <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>54</v>
       </c>
@@ -3701,19 +3981,22 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -3723,20 +4006,23 @@
       <c r="C4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="3">
         <v>20</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>30</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -3746,20 +4032,23 @@
       <c r="C5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="3">
         <v>20</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>40</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -3769,20 +4058,23 @@
       <c r="C6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="3">
         <v>40</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>50</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>3</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -3792,20 +4084,23 @@
       <c r="C7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="3">
         <v>50</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>70</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>3</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -3815,21 +4110,24 @@
       <c r="C8" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="3">
         <v>80</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>90</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/dalayBtCy.日常副本.xlsx
+++ b/Excel/dalayBtCy.日常副本.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCEEF99-259B-4E7C-9317-19924F7A896B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9037E0-388B-421B-BB49-5EE7448E8030}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="149">
   <si>
     <t>sheet名</t>
   </si>
@@ -1024,6 +1024,65 @@
       </rPr>
       <t>0,90,150,200</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪2</t>
+  </si>
+  <si>
+    <t>精英怪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守卫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪1.w</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪1.v</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪2.w</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪2.v</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英怪.w</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英怪.v</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守卫.w</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守卫.v</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS.w</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS.v</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1625,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD4C86E-3FE1-4B15-B1FC-0EF7D34D9D28}">
-  <dimension ref="A1:X43"/>
+  <dimension ref="A1:AQ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1653,10 +1712,14 @@
     <col min="21" max="22" width="20.625" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="25.625" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="23.375" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="9" customWidth="1"/>
+    <col min="25" max="27" width="9" customWidth="1"/>
+    <col min="28" max="28" width="10.625" customWidth="1"/>
+    <col min="29" max="29" width="9.625" customWidth="1"/>
+    <col min="30" max="30" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -1730,7 +1793,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1803,8 +1866,23 @@
       <c r="X2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="AB2">
+        <v>5</v>
+      </c>
+      <c r="AC2">
+        <v>6</v>
+      </c>
+      <c r="AD2">
+        <v>2</v>
+      </c>
+      <c r="AE2">
+        <v>3</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1877,8 +1955,53 @@
       <c r="X3" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1927,8 +2050,68 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB4" s="3">
+        <f>R4*1000^Q4*0.08/2</f>
+        <v>1600</v>
+      </c>
+      <c r="AC4" s="3">
+        <f>R4*1000^Q4*0.05/2</f>
+        <v>1000</v>
+      </c>
+      <c r="AD4" s="3">
+        <f>R4*1000^Q4*0.1/2</f>
+        <v>2000</v>
+      </c>
+      <c r="AE4" s="3">
+        <f>R4*1000^Q4*0.2/2</f>
+        <v>4000</v>
+      </c>
+      <c r="AF4" s="3">
+        <f>R4*1000^Q4*0.5/2</f>
+        <v>10000</v>
+      </c>
+      <c r="AH4">
+        <f>INT(LOG(AB4,1000))</f>
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <f>ROUND(AB4/1000^AH4,1)</f>
+        <v>1.6</v>
+      </c>
+      <c r="AJ4">
+        <f>INT(LOG(AC4,1000))</f>
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <f>ROUND(AC4/1000^AJ4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <f>INT(LOG(AD4,1000))</f>
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <f>ROUND(AD4/1000^AL4,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AN4">
+        <f>INT(LOG(AE4,1000))</f>
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <f>ROUND(AE4/1000^AN4,1)</f>
+        <v>4</v>
+      </c>
+      <c r="AP4">
+        <f>INT(LOG(AF4,1000))</f>
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <f>ROUND(AF4/1000^AP4,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1977,8 +2160,68 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB5" s="3">
+        <f t="shared" ref="AB5:AB10" si="0">R5*1000^Q5*0.08/2</f>
+        <v>8000</v>
+      </c>
+      <c r="AC5" s="3">
+        <f t="shared" ref="AC5:AC10" si="1">R5*1000^Q5*0.05/2</f>
+        <v>5000</v>
+      </c>
+      <c r="AD5" s="3">
+        <f t="shared" ref="AD5:AD10" si="2">R5*1000^Q5*0.1/2</f>
+        <v>10000</v>
+      </c>
+      <c r="AE5" s="3">
+        <f t="shared" ref="AE5:AE10" si="3">R5*1000^Q5*0.2/2</f>
+        <v>20000</v>
+      </c>
+      <c r="AF5" s="3">
+        <f t="shared" ref="AF5:AF10" si="4">R5*1000^Q5*0.5/2</f>
+        <v>50000</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" ref="AH5:AH11" si="5">INT(LOG(AB5,1000))</f>
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" ref="AI5:AO11" si="6">ROUND(AB5/1000^AH5,1)</f>
+        <v>8</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" ref="AJ5:AJ11" si="7">INT(LOG(AC5,1000))</f>
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" ref="AK5:AK11" si="8">ROUND(AC5/1000^AJ5,1)</f>
+        <v>5</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" ref="AL5:AL11" si="9">INT(LOG(AD5,1000))</f>
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" ref="AM5:AM11" si="10">ROUND(AD5/1000^AL5,1)</f>
+        <v>10</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" ref="AN5:AN11" si="11">INT(LOG(AE5,1000))</f>
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" ref="AO5:AO11" si="12">ROUND(AE5/1000^AN5,1)</f>
+        <v>20</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" ref="AP5:AP11" si="13">INT(LOG(AF5,1000))</f>
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" ref="AQ5:AQ11" si="14">ROUND(AF5/1000^AP5,1)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2027,8 +2270,68 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB6" s="3">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="AC6" s="3">
+        <f t="shared" si="1"/>
+        <v>7500</v>
+      </c>
+      <c r="AD6" s="3">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="AE6" s="3">
+        <f t="shared" si="3"/>
+        <v>30000</v>
+      </c>
+      <c r="AF6" s="3">
+        <f t="shared" si="4"/>
+        <v>75000</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="8"/>
+        <v>7.5</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2077,8 +2380,68 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB7" s="3">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="AC7" s="3">
+        <f t="shared" si="1"/>
+        <v>25000</v>
+      </c>
+      <c r="AD7" s="3">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+      <c r="AE7" s="3">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="AF7" s="3">
+        <f t="shared" si="4"/>
+        <v>250000</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="14"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2127,8 +2490,68 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+      <c r="AC8" s="3">
+        <f t="shared" si="1"/>
+        <v>150000</v>
+      </c>
+      <c r="AD8" s="3">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="AE8" s="3">
+        <f t="shared" si="3"/>
+        <v>600000</v>
+      </c>
+      <c r="AF8" s="3">
+        <f t="shared" si="4"/>
+        <v>1500000</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="6"/>
+        <v>240</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="12"/>
+        <v>600</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2177,8 +2600,68 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <f t="shared" si="0"/>
+        <v>400000</v>
+      </c>
+      <c r="AC9" s="3">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+      <c r="AD9" s="3">
+        <f t="shared" si="2"/>
+        <v>500000</v>
+      </c>
+      <c r="AE9" s="3">
+        <f t="shared" si="3"/>
+        <v>1000000</v>
+      </c>
+      <c r="AF9" s="3">
+        <f t="shared" si="4"/>
+        <v>2500000</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <f t="shared" si="10"/>
+        <v>500</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="14"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2227,8 +2710,68 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <f t="shared" si="0"/>
+        <v>1400000</v>
+      </c>
+      <c r="AC10" s="3">
+        <f t="shared" si="1"/>
+        <v>875000</v>
+      </c>
+      <c r="AD10" s="3">
+        <f t="shared" si="2"/>
+        <v>1750000</v>
+      </c>
+      <c r="AE10" s="3">
+        <f t="shared" si="3"/>
+        <v>3500000</v>
+      </c>
+      <c r="AF10" s="3">
+        <f t="shared" si="4"/>
+        <v>8750000</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="6"/>
+        <v>1.4</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="8"/>
+        <v>875</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" si="10"/>
+        <v>1.8</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="14"/>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2277,8 +2820,68 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3">
+        <f t="shared" ref="AB11" si="15">R11*1000^Q11*0.08/2</f>
+        <v>4000000</v>
+      </c>
+      <c r="AC11" s="3">
+        <f t="shared" ref="AC11" si="16">R11*1000^Q11*0.05/2</f>
+        <v>2500000</v>
+      </c>
+      <c r="AD11" s="3">
+        <f t="shared" ref="AD11" si="17">R11*1000^Q11*0.1/2</f>
+        <v>5000000</v>
+      </c>
+      <c r="AE11" s="3">
+        <f t="shared" ref="AE11" si="18">R11*1000^Q11*0.2/2</f>
+        <v>10000000</v>
+      </c>
+      <c r="AF11" s="3">
+        <f t="shared" ref="AF11" si="19">R11*1000^Q11*0.5/2</f>
+        <v>25000000</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AM11">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AQ11">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2327,8 +2930,28 @@
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <f t="shared" ref="AB12:AB19" si="20">R12*1000^Q12*0.08/2</f>
+        <v>0.2</v>
+      </c>
+      <c r="AC12" s="3">
+        <f t="shared" ref="AC12:AC19" si="21">R12*1000^Q12*0.05/2</f>
+        <v>0.125</v>
+      </c>
+      <c r="AD12" s="3">
+        <f t="shared" ref="AD12:AD19" si="22">R12*1000^Q12*0.1/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="AE12" s="3">
+        <f t="shared" ref="AE12:AE19" si="23">R12*1000^Q12*0.2/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="AF12" s="3">
+        <f t="shared" ref="AF12:AF19" si="24">R12*1000^Q12*0.5/2</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2377,8 +3000,28 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <f t="shared" si="20"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC13" s="3">
+        <f t="shared" si="21"/>
+        <v>0.25</v>
+      </c>
+      <c r="AD13" s="3">
+        <f t="shared" si="22"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE13" s="3">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AF13" s="3">
+        <f t="shared" si="24"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2427,8 +3070,28 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <f t="shared" si="20"/>
+        <v>0.8</v>
+      </c>
+      <c r="AC14" s="3">
+        <f t="shared" si="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="AD14" s="3">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AE14" s="3">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="AF14" s="3">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2477,8 +3140,28 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AC15" s="3">
+        <f t="shared" si="21"/>
+        <v>0.625</v>
+      </c>
+      <c r="AD15" s="3">
+        <f t="shared" si="22"/>
+        <v>1.25</v>
+      </c>
+      <c r="AE15" s="3">
+        <f t="shared" si="23"/>
+        <v>2.5</v>
+      </c>
+      <c r="AF15" s="3">
+        <f t="shared" si="24"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2527,8 +3210,28 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3">
+        <f t="shared" si="20"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="AC16" s="3">
+        <f t="shared" si="21"/>
+        <v>0.875</v>
+      </c>
+      <c r="AD16" s="3">
+        <f t="shared" si="22"/>
+        <v>1.75</v>
+      </c>
+      <c r="AE16" s="3">
+        <f t="shared" si="23"/>
+        <v>3.5</v>
+      </c>
+      <c r="AF16" s="3">
+        <f t="shared" si="24"/>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2577,8 +3280,28 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
-    </row>
-    <row r="18" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <f t="shared" si="20"/>
+        <v>1.6</v>
+      </c>
+      <c r="AC17" s="3">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AD17" s="3">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="AE17" s="3">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="AF17" s="3">
+        <f t="shared" si="24"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2627,8 +3350,28 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
-    </row>
-    <row r="19" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AC18" s="3">
+        <f t="shared" si="21"/>
+        <v>1.25</v>
+      </c>
+      <c r="AD18" s="3">
+        <f t="shared" si="22"/>
+        <v>2.5</v>
+      </c>
+      <c r="AE18" s="3">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="AF18" s="3">
+        <f t="shared" si="24"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2677,8 +3420,28 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3">
+        <f t="shared" si="20"/>
+        <v>2.4</v>
+      </c>
+      <c r="AC19" s="3">
+        <f t="shared" si="21"/>
+        <v>1.5</v>
+      </c>
+      <c r="AD19" s="3">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="AE19" s="3">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="AF19" s="3">
+        <f t="shared" si="24"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2728,7 +3491,7 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2778,7 +3541,7 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2828,7 +3591,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2878,7 +3641,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2928,7 +3691,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -2978,7 +3741,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -3028,7 +3791,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -3078,7 +3841,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -3128,7 +3891,7 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -3178,7 +3941,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -3228,7 +3991,7 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -3278,7 +4041,7 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>

--- a/Excel/dalayBtCy.日常副本.xlsx
+++ b/Excel/dalayBtCy.日常副本.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9037E0-388B-421B-BB49-5EE7448E8030}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0382A93E-5C27-43CB-8C29-23E41BF99C17}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -953,22 +953,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>初级精炼纤维</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级精炼纤维</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级精炼纤维</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶级精炼纤维</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>僚机零件</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1083,6 +1067,22 @@
   </si>
   <si>
     <t>BOSS.v</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级精炼石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级精炼石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级精炼石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶级精炼石</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1686,8 +1686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD4C86E-3FE1-4B15-B1FC-0EF7D34D9D28}">
   <dimension ref="A1:AQ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1736,7 +1736,7 @@
         <v>14</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>21</v>
@@ -1899,7 +1899,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>44</v>
@@ -1956,49 +1956,49 @@
         <v>52</v>
       </c>
       <c r="AB3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
@@ -2018,7 +2018,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>114</v>
@@ -2128,7 +2128,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>114</v>
@@ -2185,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="AI5">
-        <f t="shared" ref="AI5:AO11" si="6">ROUND(AB5/1000^AH5,1)</f>
+        <f t="shared" ref="AI5:AI11" si="6">ROUND(AB5/1000^AH5,1)</f>
         <v>8</v>
       </c>
       <c r="AJ5">
@@ -2238,7 +2238,7 @@
         <v>80</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>114</v>
@@ -2348,7 +2348,7 @@
         <v>130</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>114</v>
@@ -2458,7 +2458,7 @@
         <v>220</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>114</v>
@@ -2568,7 +2568,7 @@
         <v>300</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>114</v>
@@ -2678,7 +2678,7 @@
         <v>500</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>114</v>
@@ -2788,7 +2788,7 @@
         <v>800</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>114</v>
@@ -2898,7 +2898,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>115</v>
@@ -2968,7 +2968,7 @@
         <v>60</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>115</v>
@@ -3038,7 +3038,7 @@
         <v>100</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>115</v>
@@ -3108,7 +3108,7 @@
         <v>150</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>115</v>
@@ -3178,7 +3178,7 @@
         <v>250</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>115</v>
@@ -3248,7 +3248,7 @@
         <v>350</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>115</v>
@@ -3318,7 +3318,7 @@
         <v>550</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>115</v>
@@ -3388,7 +3388,7 @@
         <v>850</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>115</v>
@@ -3458,7 +3458,7 @@
         <v>40</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>116</v>
@@ -3490,6 +3490,26 @@
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
+      <c r="AB20" s="3">
+        <f t="shared" ref="AB20:AB35" si="25">R20*1000^Q20*0.08/2</f>
+        <v>0.2</v>
+      </c>
+      <c r="AC20" s="3">
+        <f t="shared" ref="AC20:AC35" si="26">R20*1000^Q20*0.05/2</f>
+        <v>0.125</v>
+      </c>
+      <c r="AD20" s="3">
+        <f t="shared" ref="AD20:AD35" si="27">R20*1000^Q20*0.1/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="AE20" s="3">
+        <f t="shared" ref="AE20:AE35" si="28">R20*1000^Q20*0.2/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="AF20" s="3">
+        <f t="shared" ref="AF20:AF35" si="29">R20*1000^Q20*0.5/2</f>
+        <v>1.25</v>
+      </c>
     </row>
     <row r="21" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -3508,7 +3528,7 @@
         <v>70</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>116</v>
@@ -3540,6 +3560,26 @@
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
+      <c r="AB21" s="3">
+        <f t="shared" si="25"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC21" s="3">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="AD21" s="3">
+        <f t="shared" si="27"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE21" s="3">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="AF21" s="3">
+        <f t="shared" si="29"/>
+        <v>2.5</v>
+      </c>
     </row>
     <row r="22" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -3558,7 +3598,7 @@
         <v>110</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>116</v>
@@ -3590,6 +3630,26 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
+      <c r="AB22" s="3">
+        <f t="shared" si="25"/>
+        <v>0.8</v>
+      </c>
+      <c r="AC22" s="3">
+        <f t="shared" si="26"/>
+        <v>0.5</v>
+      </c>
+      <c r="AD22" s="3">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AE22" s="3">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="AF22" s="3">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -3608,7 +3668,7 @@
         <v>160</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>116</v>
@@ -3640,6 +3700,26 @@
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
+      <c r="AB23" s="3">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AC23" s="3">
+        <f t="shared" si="26"/>
+        <v>0.625</v>
+      </c>
+      <c r="AD23" s="3">
+        <f t="shared" si="27"/>
+        <v>1.25</v>
+      </c>
+      <c r="AE23" s="3">
+        <f t="shared" si="28"/>
+        <v>2.5</v>
+      </c>
+      <c r="AF23" s="3">
+        <f t="shared" si="29"/>
+        <v>6.25</v>
+      </c>
     </row>
     <row r="24" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -3658,7 +3738,7 @@
         <v>260</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>116</v>
@@ -3690,6 +3770,26 @@
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
+      <c r="AB24" s="3">
+        <f t="shared" si="25"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="AC24" s="3">
+        <f t="shared" si="26"/>
+        <v>0.875</v>
+      </c>
+      <c r="AD24" s="3">
+        <f t="shared" si="27"/>
+        <v>1.75</v>
+      </c>
+      <c r="AE24" s="3">
+        <f t="shared" si="28"/>
+        <v>3.5</v>
+      </c>
+      <c r="AF24" s="3">
+        <f t="shared" si="29"/>
+        <v>8.75</v>
+      </c>
     </row>
     <row r="25" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -3708,7 +3808,7 @@
         <v>360</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>116</v>
@@ -3740,6 +3840,26 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
+      <c r="AB25" s="3">
+        <f t="shared" si="25"/>
+        <v>1.6</v>
+      </c>
+      <c r="AC25" s="3">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="AD25" s="3">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="AE25" s="3">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="AF25" s="3">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -3758,7 +3878,7 @@
         <v>560</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>116</v>
@@ -3790,6 +3910,26 @@
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
+      <c r="AB26" s="3">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="AC26" s="3">
+        <f t="shared" si="26"/>
+        <v>1.25</v>
+      </c>
+      <c r="AD26" s="3">
+        <f t="shared" si="27"/>
+        <v>2.5</v>
+      </c>
+      <c r="AE26" s="3">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="AF26" s="3">
+        <f t="shared" si="29"/>
+        <v>12.5</v>
+      </c>
     </row>
     <row r="27" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -3808,7 +3948,7 @@
         <v>860</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>116</v>
@@ -3840,6 +3980,26 @@
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
+      <c r="AB27" s="3">
+        <f t="shared" si="25"/>
+        <v>2.4</v>
+      </c>
+      <c r="AC27" s="3">
+        <f t="shared" si="26"/>
+        <v>1.5</v>
+      </c>
+      <c r="AD27" s="3">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="AE27" s="3">
+        <f t="shared" si="28"/>
+        <v>6</v>
+      </c>
+      <c r="AF27" s="3">
+        <f t="shared" si="29"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -3858,10 +4018,10 @@
         <v>50</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -3876,7 +4036,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="4" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="Q28" s="3">
         <v>0</v>
@@ -3890,6 +4050,26 @@
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
+      <c r="AB28" s="3">
+        <f t="shared" si="25"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC28" s="3">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="AD28" s="3">
+        <f t="shared" si="27"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE28" s="3">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="AF28" s="3">
+        <f t="shared" si="29"/>
+        <v>2.5</v>
+      </c>
     </row>
     <row r="29" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -3908,10 +4088,10 @@
         <v>80</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -3926,7 +4106,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="4" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -3940,6 +4120,26 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
+      <c r="AB29" s="3">
+        <f t="shared" si="25"/>
+        <v>0.8</v>
+      </c>
+      <c r="AC29" s="3">
+        <f t="shared" si="26"/>
+        <v>0.5</v>
+      </c>
+      <c r="AD29" s="3">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AE29" s="3">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="AF29" s="3">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -3958,10 +4158,10 @@
         <v>120</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
@@ -3976,7 +4176,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="4" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="Q30" s="3">
         <v>0</v>
@@ -3990,6 +4190,26 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
+      <c r="AB30" s="3">
+        <f t="shared" si="25"/>
+        <v>0.6</v>
+      </c>
+      <c r="AC30" s="3">
+        <f t="shared" si="26"/>
+        <v>0.375</v>
+      </c>
+      <c r="AD30" s="3">
+        <f t="shared" si="27"/>
+        <v>0.75</v>
+      </c>
+      <c r="AE30" s="3">
+        <f t="shared" si="28"/>
+        <v>1.5</v>
+      </c>
+      <c r="AF30" s="3">
+        <f t="shared" si="29"/>
+        <v>3.75</v>
+      </c>
     </row>
     <row r="31" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -4008,10 +4228,10 @@
         <v>170</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -4026,7 +4246,7 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="4" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="Q31" s="3">
         <v>0</v>
@@ -4040,6 +4260,26 @@
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
+      <c r="AB31" s="3">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AC31" s="3">
+        <f t="shared" si="26"/>
+        <v>0.625</v>
+      </c>
+      <c r="AD31" s="3">
+        <f t="shared" si="27"/>
+        <v>1.25</v>
+      </c>
+      <c r="AE31" s="3">
+        <f t="shared" si="28"/>
+        <v>2.5</v>
+      </c>
+      <c r="AF31" s="3">
+        <f t="shared" si="29"/>
+        <v>6.25</v>
+      </c>
     </row>
     <row r="32" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -4058,10 +4298,10 @@
         <v>270</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -4076,7 +4316,7 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="4" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -4090,8 +4330,28 @@
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
-    </row>
-    <row r="33" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <f t="shared" si="25"/>
+        <v>1.6</v>
+      </c>
+      <c r="AC32" s="3">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="AD32" s="3">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="AE32" s="3">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="AF32" s="3">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -4108,10 +4368,10 @@
         <v>370</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -4126,7 +4386,7 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
@@ -4140,8 +4400,28 @@
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
-    </row>
-    <row r="34" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <f t="shared" si="25"/>
+        <v>0.8</v>
+      </c>
+      <c r="AC33" s="3">
+        <f t="shared" si="26"/>
+        <v>0.5</v>
+      </c>
+      <c r="AD33" s="3">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AE33" s="3">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="AF33" s="3">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -4158,10 +4438,10 @@
         <v>570</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
@@ -4176,7 +4456,7 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="Q34" s="3">
         <v>0</v>
@@ -4190,8 +4470,28 @@
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
-    </row>
-    <row r="35" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <f t="shared" si="25"/>
+        <v>1.2</v>
+      </c>
+      <c r="AC34" s="3">
+        <f t="shared" si="26"/>
+        <v>0.75</v>
+      </c>
+      <c r="AD34" s="3">
+        <f t="shared" si="27"/>
+        <v>1.5</v>
+      </c>
+      <c r="AE34" s="3">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="AF34" s="3">
+        <f t="shared" si="29"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -4208,10 +4508,10 @@
         <v>870</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -4226,7 +4526,7 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="4" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
@@ -4240,8 +4540,28 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
-    </row>
-    <row r="36" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <f t="shared" si="25"/>
+        <v>0.8</v>
+      </c>
+      <c r="AC35" s="3">
+        <f t="shared" si="26"/>
+        <v>0.5</v>
+      </c>
+      <c r="AD35" s="3">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AE35" s="3">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="AF35" s="3">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -4258,10 +4578,10 @@
         <v>60</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
@@ -4276,7 +4596,7 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q36" s="3">
         <v>0</v>
@@ -4290,8 +4610,28 @@
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
-    </row>
-    <row r="37" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB36" s="3">
+        <f t="shared" ref="AB36:AB37" si="30">R36*1000^Q36*0.08/2</f>
+        <v>0.2</v>
+      </c>
+      <c r="AC36" s="3">
+        <f t="shared" ref="AC36:AC37" si="31">R36*1000^Q36*0.05/2</f>
+        <v>0.125</v>
+      </c>
+      <c r="AD36" s="3">
+        <f t="shared" ref="AD36:AD37" si="32">R36*1000^Q36*0.1/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="AE36" s="3">
+        <f t="shared" ref="AE36:AE37" si="33">R36*1000^Q36*0.2/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="AF36" s="3">
+        <f t="shared" ref="AF36:AF37" si="34">R36*1000^Q36*0.5/2</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -4308,10 +4648,10 @@
         <v>90</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
@@ -4326,7 +4666,7 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q37" s="3">
         <v>0</v>
@@ -4340,8 +4680,28 @@
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
-    </row>
-    <row r="38" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB37" s="3">
+        <f t="shared" si="30"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC37" s="3">
+        <f t="shared" si="31"/>
+        <v>0.25</v>
+      </c>
+      <c r="AD37" s="3">
+        <f t="shared" si="32"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE37" s="3">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="AF37" s="3">
+        <f t="shared" si="34"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -4358,10 +4718,10 @@
         <v>130</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
@@ -4376,7 +4736,7 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q38" s="3">
         <v>0</v>
@@ -4390,8 +4750,28 @@
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
-    </row>
-    <row r="39" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB38" s="3">
+        <f t="shared" ref="AB38:AB43" si="35">R38*1000^Q38*0.08/2</f>
+        <v>0.8</v>
+      </c>
+      <c r="AC38" s="3">
+        <f t="shared" ref="AC38:AC43" si="36">R38*1000^Q38*0.05/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="AD38" s="3">
+        <f t="shared" ref="AD38:AD43" si="37">R38*1000^Q38*0.1/2</f>
+        <v>1</v>
+      </c>
+      <c r="AE38" s="3">
+        <f t="shared" ref="AE38:AE43" si="38">R38*1000^Q38*0.2/2</f>
+        <v>2</v>
+      </c>
+      <c r="AF38" s="3">
+        <f t="shared" ref="AF38:AF43" si="39">R38*1000^Q38*0.5/2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -4408,10 +4788,10 @@
         <v>180</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
@@ -4426,7 +4806,7 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q39" s="3">
         <v>0</v>
@@ -4440,8 +4820,28 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AC39" s="3">
+        <f t="shared" si="36"/>
+        <v>0.625</v>
+      </c>
+      <c r="AD39" s="3">
+        <f t="shared" si="37"/>
+        <v>1.25</v>
+      </c>
+      <c r="AE39" s="3">
+        <f t="shared" si="38"/>
+        <v>2.5</v>
+      </c>
+      <c r="AF39" s="3">
+        <f t="shared" si="39"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -4458,10 +4858,10 @@
         <v>280</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -4476,7 +4876,7 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q40" s="3">
         <v>0</v>
@@ -4490,8 +4890,28 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3">
+        <f t="shared" si="35"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="AC40" s="3">
+        <f t="shared" si="36"/>
+        <v>0.875</v>
+      </c>
+      <c r="AD40" s="3">
+        <f t="shared" si="37"/>
+        <v>1.75</v>
+      </c>
+      <c r="AE40" s="3">
+        <f t="shared" si="38"/>
+        <v>3.5</v>
+      </c>
+      <c r="AF40" s="3">
+        <f t="shared" si="39"/>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -4508,10 +4928,10 @@
         <v>380</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -4526,7 +4946,7 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -4540,8 +4960,28 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
-    </row>
-    <row r="42" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <f t="shared" si="35"/>
+        <v>1.6</v>
+      </c>
+      <c r="AC41" s="3">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="AD41" s="3">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="AE41" s="3">
+        <f t="shared" si="38"/>
+        <v>4</v>
+      </c>
+      <c r="AF41" s="3">
+        <f t="shared" si="39"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -4558,10 +4998,10 @@
         <v>580</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -4576,7 +5016,7 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -4590,8 +5030,28 @@
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
-    </row>
-    <row r="43" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="AC42" s="3">
+        <f t="shared" si="36"/>
+        <v>1.25</v>
+      </c>
+      <c r="AD42" s="3">
+        <f t="shared" si="37"/>
+        <v>2.5</v>
+      </c>
+      <c r="AE42" s="3">
+        <f t="shared" si="38"/>
+        <v>5</v>
+      </c>
+      <c r="AF42" s="3">
+        <f t="shared" si="39"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -4608,10 +5068,10 @@
         <v>880</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -4626,7 +5086,7 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -4640,6 +5100,26 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
+      <c r="AB43" s="3">
+        <f t="shared" si="35"/>
+        <v>2.4</v>
+      </c>
+      <c r="AC43" s="3">
+        <f t="shared" si="36"/>
+        <v>1.5</v>
+      </c>
+      <c r="AD43" s="3">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
+      <c r="AE43" s="3">
+        <f t="shared" si="38"/>
+        <v>6</v>
+      </c>
+      <c r="AF43" s="3">
+        <f t="shared" si="39"/>
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4692,7 +5172,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>59</v>
@@ -4718,7 +5198,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
         <v>58</v>
@@ -4744,7 +5224,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>64</v>
@@ -4770,7 +5250,7 @@
         <v>65</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E4" s="3">
         <v>20</v>
@@ -4796,7 +5276,7 @@
         <v>66</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E5" s="3">
         <v>20</v>
@@ -4822,7 +5302,7 @@
         <v>67</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E6" s="3">
         <v>40</v>
@@ -4848,7 +5328,7 @@
         <v>68</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E7" s="3">
         <v>50</v>
@@ -4874,7 +5354,7 @@
         <v>89</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E8" s="3">
         <v>80</v>

--- a/Excel/dalayBtCy.日常副本.xlsx
+++ b/Excel/dalayBtCy.日常副本.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0382A93E-5C27-43CB-8C29-23E41BF99C17}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1574332E-27CB-4B76-B78D-661F36697131}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="176">
   <si>
     <t>sheet名</t>
   </si>
@@ -953,13 +953,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>僚机零件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>僚机零件</t>
-  </si>
-  <si>
     <t>rankScore</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1082,8 +1075,123 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>顶级精炼石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>timeLimit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间限制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡奖励ID1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡奖励权重1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡奖励值1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡奖励ID2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡奖励权重2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡奖励值2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡奖励ID3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡奖励权重3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡奖励值3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyCopy.json</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>help_col</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助列</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lvs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type,help_col,lv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId,type,help_col,lv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端日常本的表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId,help_col</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端日常本的表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常本类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端日常本类型的表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type,rowId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyCopyType.json</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端日常本类型的表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特级精炼石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物丹</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1707,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1636,41 +1744,89 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+    <row r="2" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3"/>
+    <row r="4" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -1684,42 +1840,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD4C86E-3FE1-4B15-B1FC-0EF7D34D9D28}">
-  <dimension ref="A1:AQ43"/>
+  <dimension ref="A1:AS43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="39.5" customWidth="1"/>
-    <col min="7" max="7" width="22.125" customWidth="1"/>
-    <col min="8" max="8" width="22.25" customWidth="1"/>
-    <col min="9" max="9" width="22.375" customWidth="1"/>
-    <col min="10" max="10" width="21.625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="25.125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="19.875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="23.75" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="23.25" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="23.25" customWidth="1"/>
-    <col min="17" max="17" width="22.25" customWidth="1"/>
-    <col min="18" max="18" width="23" customWidth="1"/>
-    <col min="19" max="19" width="21" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="22.5" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="20.625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="25.625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="23.375" hidden="1" customWidth="1"/>
-    <col min="25" max="27" width="9" customWidth="1"/>
-    <col min="28" max="28" width="10.625" customWidth="1"/>
-    <col min="29" max="29" width="9.625" customWidth="1"/>
-    <col min="30" max="30" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="22.125" customWidth="1"/>
+    <col min="10" max="10" width="22.25" customWidth="1"/>
+    <col min="11" max="11" width="22.375" customWidth="1"/>
+    <col min="12" max="12" width="21.625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="25.125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="19.875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="23.75" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="23.25" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="23.25" customWidth="1"/>
+    <col min="19" max="19" width="22.25" customWidth="1"/>
+    <col min="20" max="20" width="23" customWidth="1"/>
+    <col min="21" max="21" width="21" customWidth="1"/>
+    <col min="22" max="22" width="22.5" customWidth="1"/>
+    <col min="23" max="24" width="20.625" customWidth="1"/>
+    <col min="25" max="25" width="25.625" customWidth="1"/>
+    <col min="26" max="26" width="23.375" customWidth="1"/>
+    <col min="27" max="29" width="9" customWidth="1"/>
+    <col min="30" max="30" width="10.625" customWidth="1"/>
+    <col min="31" max="31" width="9.625" customWidth="1"/>
+    <col min="32" max="32" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -1730,70 +1888,76 @@
         <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1804,85 +1968,91 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>60</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>40</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>39</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>40</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>8</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>40</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>8</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>39</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>40</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>8</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>41</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>42</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>43</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>5</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>6</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>2</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>3</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1893,3230 +2063,3476 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="R3" s="2" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AP3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>144</v>
-      </c>
     </row>
-    <row r="4" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
+      <c r="D4" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
         <v>20</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3">
+        <v>150</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
         <v>100</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Q4" s="3">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3">
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3">
         <v>40</v>
       </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
-      <c r="AB4" s="3">
-        <f>R4*1000^Q4*0.08/2</f>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AD4" s="3">
+        <f>T4*1000^S4*0.08/2</f>
         <v>1600</v>
       </c>
-      <c r="AC4" s="3">
-        <f>R4*1000^Q4*0.05/2</f>
+      <c r="AE4" s="3">
+        <f>T4*1000^S4*0.05/2</f>
         <v>1000</v>
       </c>
-      <c r="AD4" s="3">
-        <f>R4*1000^Q4*0.1/2</f>
+      <c r="AF4" s="3">
+        <f>T4*1000^S4*0.1/2</f>
         <v>2000</v>
       </c>
-      <c r="AE4" s="3">
-        <f>R4*1000^Q4*0.2/2</f>
+      <c r="AG4" s="3">
+        <f>T4*1000^S4*0.2/2</f>
         <v>4000</v>
       </c>
-      <c r="AF4" s="3">
-        <f>R4*1000^Q4*0.5/2</f>
+      <c r="AH4" s="3">
+        <f>T4*1000^S4*0.5/2</f>
         <v>10000</v>
       </c>
-      <c r="AH4">
-        <f>INT(LOG(AB4,1000))</f>
-        <v>1</v>
-      </c>
-      <c r="AI4">
-        <f>ROUND(AB4/1000^AH4,1)</f>
+      <c r="AJ4">
+        <f>INT(LOG(AD4,1000))</f>
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <f>ROUND(AD4/1000^AJ4,1)</f>
         <v>1.6</v>
       </c>
-      <c r="AJ4">
-        <f>INT(LOG(AC4,1000))</f>
-        <v>1</v>
-      </c>
-      <c r="AK4">
-        <f>ROUND(AC4/1000^AJ4,1)</f>
-        <v>1</v>
-      </c>
       <c r="AL4">
-        <f>INT(LOG(AD4,1000))</f>
+        <f>INT(LOG(AE4,1000))</f>
         <v>1</v>
       </c>
       <c r="AM4">
-        <f>ROUND(AD4/1000^AL4,1)</f>
+        <f>ROUND(AE4/1000^AL4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <f>INT(LOG(AF4,1000))</f>
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <f>ROUND(AF4/1000^AN4,1)</f>
         <v>2</v>
       </c>
-      <c r="AN4">
-        <f>INT(LOG(AE4,1000))</f>
-        <v>1</v>
-      </c>
-      <c r="AO4">
-        <f>ROUND(AE4/1000^AN4,1)</f>
+      <c r="AP4">
+        <f>INT(LOG(AG4,1000))</f>
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <f>ROUND(AG4/1000^AP4,1)</f>
         <v>4</v>
       </c>
-      <c r="AP4">
-        <f>INT(LOG(AF4,1000))</f>
-        <v>1</v>
-      </c>
-      <c r="AQ4">
-        <f>ROUND(AF4/1000^AP4,1)</f>
+      <c r="AR4">
+        <f>INT(LOG(AH4,1000))</f>
+        <v>1</v>
+      </c>
+      <c r="AS4">
+        <f>ROUND(AH4/1000^AR4,1)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>50</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3">
+        <v>150</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
         <v>500</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Q5" s="3">
-        <v>1</v>
-      </c>
-      <c r="R5" s="3">
+      <c r="S5" s="3">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3">
         <v>200</v>
       </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-      <c r="AB5" s="3">
-        <f t="shared" ref="AB5:AB10" si="0">R5*1000^Q5*0.08/2</f>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AD5" s="3">
+        <f t="shared" ref="AD5:AD10" si="0">T5*1000^S5*0.08/2</f>
         <v>8000</v>
       </c>
-      <c r="AC5" s="3">
-        <f t="shared" ref="AC5:AC10" si="1">R5*1000^Q5*0.05/2</f>
+      <c r="AE5" s="3">
+        <f t="shared" ref="AE5:AE10" si="1">T5*1000^S5*0.05/2</f>
         <v>5000</v>
       </c>
-      <c r="AD5" s="3">
-        <f t="shared" ref="AD5:AD10" si="2">R5*1000^Q5*0.1/2</f>
+      <c r="AF5" s="3">
+        <f t="shared" ref="AF5:AF10" si="2">T5*1000^S5*0.1/2</f>
         <v>10000</v>
       </c>
-      <c r="AE5" s="3">
-        <f t="shared" ref="AE5:AE10" si="3">R5*1000^Q5*0.2/2</f>
+      <c r="AG5" s="3">
+        <f t="shared" ref="AG5:AG10" si="3">T5*1000^S5*0.2/2</f>
         <v>20000</v>
       </c>
-      <c r="AF5" s="3">
-        <f t="shared" ref="AF5:AF10" si="4">R5*1000^Q5*0.5/2</f>
+      <c r="AH5" s="3">
+        <f t="shared" ref="AH5:AH10" si="4">T5*1000^S5*0.5/2</f>
         <v>50000</v>
       </c>
-      <c r="AH5">
-        <f t="shared" ref="AH5:AH11" si="5">INT(LOG(AB5,1000))</f>
-        <v>1</v>
-      </c>
-      <c r="AI5">
-        <f t="shared" ref="AI5:AI11" si="6">ROUND(AB5/1000^AH5,1)</f>
+      <c r="AJ5">
+        <f t="shared" ref="AJ5:AJ11" si="5">INT(LOG(AD5,1000))</f>
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" ref="AK5:AK11" si="6">ROUND(AD5/1000^AJ5,1)</f>
         <v>8</v>
       </c>
-      <c r="AJ5">
-        <f t="shared" ref="AJ5:AJ11" si="7">INT(LOG(AC5,1000))</f>
-        <v>1</v>
-      </c>
-      <c r="AK5">
-        <f t="shared" ref="AK5:AK11" si="8">ROUND(AC5/1000^AJ5,1)</f>
+      <c r="AL5">
+        <f t="shared" ref="AL5:AL11" si="7">INT(LOG(AE5,1000))</f>
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" ref="AM5:AM11" si="8">ROUND(AE5/1000^AL5,1)</f>
         <v>5</v>
       </c>
-      <c r="AL5">
-        <f t="shared" ref="AL5:AL11" si="9">INT(LOG(AD5,1000))</f>
-        <v>1</v>
-      </c>
-      <c r="AM5">
-        <f t="shared" ref="AM5:AM11" si="10">ROUND(AD5/1000^AL5,1)</f>
+      <c r="AN5">
+        <f t="shared" ref="AN5:AN11" si="9">INT(LOG(AF5,1000))</f>
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" ref="AO5:AO11" si="10">ROUND(AF5/1000^AN5,1)</f>
         <v>10</v>
       </c>
-      <c r="AN5">
-        <f t="shared" ref="AN5:AN11" si="11">INT(LOG(AE5,1000))</f>
-        <v>1</v>
-      </c>
-      <c r="AO5">
-        <f t="shared" ref="AO5:AO11" si="12">ROUND(AE5/1000^AN5,1)</f>
+      <c r="AP5">
+        <f t="shared" ref="AP5:AP11" si="11">INT(LOG(AG5,1000))</f>
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" ref="AQ5:AQ11" si="12">ROUND(AG5/1000^AP5,1)</f>
         <v>20</v>
       </c>
-      <c r="AP5">
-        <f t="shared" ref="AP5:AP11" si="13">INT(LOG(AF5,1000))</f>
-        <v>1</v>
-      </c>
-      <c r="AQ5">
-        <f t="shared" ref="AQ5:AQ11" si="14">ROUND(AF5/1000^AP5,1)</f>
+      <c r="AR5">
+        <f t="shared" ref="AR5:AR11" si="13">INT(LOG(AH5,1000))</f>
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" ref="AS5:AS11" si="14">ROUND(AH5/1000^AR5,1)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>80</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3">
+        <v>150</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
         <v>700</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Q6" s="3">
-        <v>1</v>
-      </c>
-      <c r="R6" s="3">
+      <c r="S6" s="3">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
         <v>300</v>
       </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-      <c r="AB6" s="3">
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AD6" s="3">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AE6" s="3">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AF6" s="3">
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AG6" s="3">
         <f t="shared" si="3"/>
         <v>30000</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AH6" s="3">
         <f t="shared" si="4"/>
         <v>75000</v>
       </c>
-      <c r="AH6">
+      <c r="AJ6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="AJ6">
+      <c r="AL6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AK6">
+      <c r="AM6">
         <f t="shared" si="8"/>
         <v>7.5</v>
       </c>
-      <c r="AL6">
+      <c r="AN6">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AM6">
+      <c r="AO6">
         <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="AN6">
+      <c r="AP6">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AO6">
+      <c r="AQ6">
         <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="AP6">
+      <c r="AR6">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AQ6">
+      <c r="AS6">
         <f t="shared" si="14"/>
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>130</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3">
+        <v>150</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="3">
+      <c r="J7" s="3">
         <v>2</v>
       </c>
-      <c r="I7" s="3">
+      <c r="K7" s="3">
         <v>2.5</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="S7" s="3">
         <v>2</v>
       </c>
-      <c r="R7" s="3">
-        <v>1</v>
-      </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
+      <c r="T7" s="3">
+        <v>1</v>
+      </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-      <c r="AB7" s="3">
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AD7" s="3">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AE7" s="3">
         <f t="shared" si="1"/>
         <v>25000</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AF7" s="3">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-      <c r="AE7" s="3">
+      <c r="AG7" s="3">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AH7" s="3">
         <f t="shared" si="4"/>
         <v>250000</v>
       </c>
-      <c r="AH7">
+      <c r="AJ7">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AI7">
+      <c r="AK7">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="AJ7">
+      <c r="AL7">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AK7">
+      <c r="AM7">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="AL7">
+      <c r="AN7">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AM7">
+      <c r="AO7">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="AN7">
+      <c r="AP7">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AO7">
+      <c r="AQ7">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="AP7">
+      <c r="AR7">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AQ7">
+      <c r="AS7">
         <f t="shared" si="14"/>
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="3">
         <v>5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>220</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3">
+        <v>150</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>15</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>6</v>
       </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="AB8" s="3">
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AD8" s="3">
         <f t="shared" si="0"/>
         <v>240000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <f t="shared" si="1"/>
         <v>150000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AF8" s="3">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AG8" s="3">
         <f t="shared" si="3"/>
         <v>600000</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AH8" s="3">
         <f t="shared" si="4"/>
         <v>1500000</v>
       </c>
-      <c r="AH8">
+      <c r="AJ8">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <f t="shared" si="6"/>
         <v>240</v>
       </c>
-      <c r="AJ8">
+      <c r="AL8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AK8">
+      <c r="AM8">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="AL8">
+      <c r="AN8">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AM8">
+      <c r="AO8">
         <f t="shared" si="10"/>
         <v>300</v>
       </c>
-      <c r="AN8">
+      <c r="AP8">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AO8">
+      <c r="AQ8">
         <f t="shared" si="12"/>
         <v>600</v>
       </c>
-      <c r="AP8">
+      <c r="AR8">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="AQ8">
+      <c r="AS8">
         <f t="shared" si="14"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="3">
         <v>6</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3">
+        <v>150</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>25</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>10</v>
       </c>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-      <c r="AB9" s="3">
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AD9" s="3">
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <f t="shared" si="1"/>
         <v>250000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AF9" s="3">
         <f t="shared" si="2"/>
         <v>500000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AG9" s="3">
         <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AH9" s="3">
         <f t="shared" si="4"/>
         <v>2500000</v>
       </c>
-      <c r="AH9">
+      <c r="AJ9">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AI9">
+      <c r="AK9">
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
-      <c r="AJ9">
+      <c r="AL9">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AK9">
+      <c r="AM9">
         <f t="shared" si="8"/>
         <v>250</v>
       </c>
-      <c r="AL9">
+      <c r="AN9">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AM9">
+      <c r="AO9">
         <f t="shared" si="10"/>
         <v>500</v>
       </c>
-      <c r="AN9">
+      <c r="AP9">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="AO9">
+      <c r="AQ9">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AP9">
+      <c r="AR9">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="AQ9">
+      <c r="AS9">
         <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="3">
         <v>7</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3">
+        <v>150</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>90</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>35</v>
       </c>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-      <c r="AB10" s="3">
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AD10" s="3">
         <f t="shared" si="0"/>
         <v>1400000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <f t="shared" si="1"/>
         <v>875000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AF10" s="3">
         <f t="shared" si="2"/>
         <v>1750000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AG10" s="3">
         <f t="shared" si="3"/>
         <v>3500000</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AH10" s="3">
         <f t="shared" si="4"/>
         <v>8750000</v>
       </c>
-      <c r="AH10">
+      <c r="AJ10">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AI10">
+      <c r="AK10">
         <f t="shared" si="6"/>
         <v>1.4</v>
       </c>
-      <c r="AJ10">
+      <c r="AL10">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AK10">
+      <c r="AM10">
         <f t="shared" si="8"/>
         <v>875</v>
       </c>
-      <c r="AL10">
+      <c r="AN10">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="AM10">
+      <c r="AO10">
         <f t="shared" si="10"/>
         <v>1.8</v>
       </c>
-      <c r="AN10">
+      <c r="AP10">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="AO10">
+      <c r="AQ10">
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="AP10">
+      <c r="AR10">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="AQ10">
+      <c r="AS10">
         <f t="shared" si="14"/>
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="3">
         <v>8</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>800</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3">
+        <v>150</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H11" s="3">
+      <c r="J11" s="3">
         <v>2</v>
       </c>
-      <c r="I11" s="3">
+      <c r="K11" s="3">
         <v>250</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="S11" s="3">
         <v>2</v>
       </c>
-      <c r="R11" s="3">
+      <c r="T11" s="3">
         <v>100</v>
       </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-      <c r="AB11" s="3">
-        <f t="shared" ref="AB11" si="15">R11*1000^Q11*0.08/2</f>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AD11" s="3">
+        <f t="shared" ref="AD11" si="15">T11*1000^S11*0.08/2</f>
         <v>4000000</v>
       </c>
-      <c r="AC11" s="3">
-        <f t="shared" ref="AC11" si="16">R11*1000^Q11*0.05/2</f>
+      <c r="AE11" s="3">
+        <f t="shared" ref="AE11" si="16">T11*1000^S11*0.05/2</f>
         <v>2500000</v>
       </c>
-      <c r="AD11" s="3">
-        <f t="shared" ref="AD11" si="17">R11*1000^Q11*0.1/2</f>
+      <c r="AF11" s="3">
+        <f t="shared" ref="AF11" si="17">T11*1000^S11*0.1/2</f>
         <v>5000000</v>
       </c>
-      <c r="AE11" s="3">
-        <f t="shared" ref="AE11" si="18">R11*1000^Q11*0.2/2</f>
+      <c r="AG11" s="3">
+        <f t="shared" ref="AG11" si="18">T11*1000^S11*0.2/2</f>
         <v>10000000</v>
       </c>
-      <c r="AF11" s="3">
-        <f t="shared" ref="AF11" si="19">R11*1000^Q11*0.5/2</f>
+      <c r="AH11" s="3">
+        <f t="shared" ref="AH11" si="19">T11*1000^S11*0.5/2</f>
         <v>25000000</v>
       </c>
-      <c r="AH11">
+      <c r="AJ11">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AI11">
+      <c r="AK11">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="AJ11">
+      <c r="AL11">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AK11">
+      <c r="AM11">
         <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
-      <c r="AL11">
+      <c r="AN11">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="AM11">
+      <c r="AO11">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="AN11">
+      <c r="AP11">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="AO11">
+      <c r="AQ11">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="AP11">
+      <c r="AR11">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="AQ11">
+      <c r="AS11">
         <f t="shared" si="14"/>
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
+      <c r="D12" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
         <v>30</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3">
+        <v>150</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>12</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
         <v>5</v>
       </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-      <c r="AB12" s="3">
-        <f t="shared" ref="AB12:AB19" si="20">R12*1000^Q12*0.08/2</f>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AD12" s="3">
+        <f t="shared" ref="AD12:AD19" si="20">T12*1000^S12*0.08/2</f>
         <v>0.2</v>
       </c>
-      <c r="AC12" s="3">
-        <f t="shared" ref="AC12:AC19" si="21">R12*1000^Q12*0.05/2</f>
+      <c r="AE12" s="3">
+        <f t="shared" ref="AE12:AE19" si="21">T12*1000^S12*0.05/2</f>
         <v>0.125</v>
       </c>
-      <c r="AD12" s="3">
-        <f t="shared" ref="AD12:AD19" si="22">R12*1000^Q12*0.1/2</f>
+      <c r="AF12" s="3">
+        <f t="shared" ref="AF12:AF19" si="22">T12*1000^S12*0.1/2</f>
         <v>0.25</v>
       </c>
-      <c r="AE12" s="3">
-        <f t="shared" ref="AE12:AE19" si="23">R12*1000^Q12*0.2/2</f>
+      <c r="AG12" s="3">
+        <f t="shared" ref="AG12:AG19" si="23">T12*1000^S12*0.2/2</f>
         <v>0.5</v>
       </c>
-      <c r="AF12" s="3">
-        <f t="shared" ref="AF12:AF19" si="24">R12*1000^Q12*0.5/2</f>
+      <c r="AH12" s="3">
+        <f t="shared" ref="AH12:AH19" si="24">T12*1000^S12*0.5/2</f>
         <v>1.25</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>60</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3">
+        <v>150</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
         <v>25</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="Q13" s="3">
-        <v>0</v>
-      </c>
-      <c r="R13" s="3">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
         <v>10</v>
       </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-      <c r="AB13" s="3">
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AD13" s="3">
         <f t="shared" si="20"/>
         <v>0.4</v>
       </c>
-      <c r="AC13" s="3">
+      <c r="AE13" s="3">
         <f t="shared" si="21"/>
         <v>0.25</v>
       </c>
-      <c r="AD13" s="3">
+      <c r="AF13" s="3">
         <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
-      <c r="AE13" s="3">
+      <c r="AG13" s="3">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AF13" s="3">
+      <c r="AH13" s="3">
         <f t="shared" si="24"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="3">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3">
+        <v>150</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>50</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>20</v>
       </c>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-      <c r="AB14" s="3">
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AD14" s="3">
         <f t="shared" si="20"/>
         <v>0.8</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AE14" s="3">
         <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AF14" s="3">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AG14" s="3">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
-      <c r="AF14" s="3">
+      <c r="AH14" s="3">
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="3">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="3">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>150</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3">
+        <v>150</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>62</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
         <v>25</v>
       </c>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-      <c r="AB15" s="3">
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AD15" s="3">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AE15" s="3">
         <f t="shared" si="21"/>
         <v>0.625</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AF15" s="3">
         <f t="shared" si="22"/>
         <v>1.25</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AG15" s="3">
         <f t="shared" si="23"/>
         <v>2.5</v>
       </c>
-      <c r="AF15" s="3">
+      <c r="AH15" s="3">
         <f t="shared" si="24"/>
         <v>6.25</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="3">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="3">
         <v>5</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>250</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3">
+        <v>150</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
         <v>87</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="Q16" s="3">
-        <v>0</v>
-      </c>
-      <c r="R16" s="3">
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
         <v>35</v>
       </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-      <c r="AB16" s="3">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AD16" s="3">
         <f t="shared" si="20"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="AC16" s="3">
+      <c r="AE16" s="3">
         <f t="shared" si="21"/>
         <v>0.875</v>
       </c>
-      <c r="AD16" s="3">
+      <c r="AF16" s="3">
         <f t="shared" si="22"/>
         <v>1.75</v>
       </c>
-      <c r="AE16" s="3">
+      <c r="AG16" s="3">
         <f t="shared" si="23"/>
         <v>3.5</v>
       </c>
-      <c r="AF16" s="3">
+      <c r="AH16" s="3">
         <f t="shared" si="24"/>
         <v>8.75</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="3">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="3">
         <v>6</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>350</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3">
+        <v>150</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>40</v>
       </c>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
-      <c r="AB17" s="3">
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AD17" s="3">
         <f t="shared" si="20"/>
         <v>1.6</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AF17" s="3">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AG17" s="3">
         <f t="shared" si="23"/>
         <v>4</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AH17" s="3">
         <f t="shared" si="24"/>
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="3">
         <v>7</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>550</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3">
+        <v>150</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>125</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="4" t="s">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>50</v>
       </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
-      <c r="AB18" s="3">
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AD18" s="3">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <f t="shared" si="21"/>
         <v>1.25</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AF18" s="3">
         <f t="shared" si="22"/>
         <v>2.5</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AG18" s="3">
         <f t="shared" si="23"/>
         <v>5</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AH18" s="3">
         <f t="shared" si="24"/>
         <v>12.5</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="3">
         <v>8</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>850</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3">
+        <v>150</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
         <v>150</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="4" t="s">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="Q19" s="3">
-        <v>0</v>
-      </c>
-      <c r="R19" s="3">
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
         <v>60</v>
       </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-      <c r="AB19" s="3">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AD19" s="3">
         <f t="shared" si="20"/>
         <v>2.4</v>
       </c>
-      <c r="AC19" s="3">
+      <c r="AE19" s="3">
         <f t="shared" si="21"/>
         <v>1.5</v>
       </c>
-      <c r="AD19" s="3">
+      <c r="AF19" s="3">
         <f t="shared" si="22"/>
         <v>3</v>
       </c>
-      <c r="AE19" s="3">
+      <c r="AG19" s="3">
         <f t="shared" si="23"/>
         <v>6</v>
       </c>
-      <c r="AF19" s="3">
+      <c r="AH19" s="3">
         <f t="shared" si="24"/>
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="3">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="3">
-        <v>1</v>
+      <c r="D20" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
         <v>40</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3">
+        <v>150</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>12</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="4" t="s">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>5</v>
       </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
-      <c r="AB20" s="3">
-        <f t="shared" ref="AB20:AB35" si="25">R20*1000^Q20*0.08/2</f>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AD20" s="3">
+        <f t="shared" ref="AD20:AD35" si="25">T20*1000^S20*0.08/2</f>
         <v>0.2</v>
       </c>
-      <c r="AC20" s="3">
-        <f t="shared" ref="AC20:AC35" si="26">R20*1000^Q20*0.05/2</f>
+      <c r="AE20" s="3">
+        <f t="shared" ref="AE20:AE35" si="26">T20*1000^S20*0.05/2</f>
         <v>0.125</v>
       </c>
-      <c r="AD20" s="3">
-        <f t="shared" ref="AD20:AD35" si="27">R20*1000^Q20*0.1/2</f>
+      <c r="AF20" s="3">
+        <f t="shared" ref="AF20:AF35" si="27">T20*1000^S20*0.1/2</f>
         <v>0.25</v>
       </c>
-      <c r="AE20" s="3">
-        <f t="shared" ref="AE20:AE35" si="28">R20*1000^Q20*0.2/2</f>
+      <c r="AG20" s="3">
+        <f t="shared" ref="AG20:AG35" si="28">T20*1000^S20*0.2/2</f>
         <v>0.5</v>
       </c>
-      <c r="AF20" s="3">
-        <f t="shared" ref="AF20:AF35" si="29">R20*1000^Q20*0.5/2</f>
+      <c r="AH20" s="3">
+        <f t="shared" ref="AH20:AH35" si="29">T20*1000^S20*0.5/2</f>
         <v>1.25</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="3">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="3">
         <v>2</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>70</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3">
+        <v>150</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>25</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="4" t="s">
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>10</v>
       </c>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
-      <c r="AB21" s="3">
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AD21" s="3">
         <f t="shared" si="25"/>
         <v>0.4</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AF21" s="3">
         <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AG21" s="3">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AH21" s="3">
         <f t="shared" si="29"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="3">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="3">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>110</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3">
+        <v>150</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>50</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="4" t="s">
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>20</v>
       </c>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
-      <c r="AB22" s="3">
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AD22" s="3">
         <f t="shared" si="25"/>
         <v>0.8</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AF22" s="3">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AG22" s="3">
         <f t="shared" si="28"/>
         <v>2</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="AH22" s="3">
         <f t="shared" si="29"/>
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="3">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="3">
         <v>4</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>160</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3">
+        <v>150</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>62</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="4" t="s">
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>25</v>
       </c>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
-      <c r="AB23" s="3">
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AD23" s="3">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <f t="shared" si="26"/>
         <v>0.625</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AF23" s="3">
         <f t="shared" si="27"/>
         <v>1.25</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AG23" s="3">
         <f t="shared" si="28"/>
         <v>2.5</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AH23" s="3">
         <f t="shared" si="29"/>
         <v>6.25</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="3">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="3">
         <v>5</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>260</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3">
+        <v>150</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>87</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="4" t="s">
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>35</v>
       </c>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
-      <c r="AB24" s="3">
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AD24" s="3">
         <f t="shared" si="25"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <f t="shared" si="26"/>
         <v>0.875</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AF24" s="3">
         <f t="shared" si="27"/>
         <v>1.75</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AG24" s="3">
         <f t="shared" si="28"/>
         <v>3.5</v>
       </c>
-      <c r="AF24" s="3">
+      <c r="AH24" s="3">
         <f t="shared" si="29"/>
         <v>8.75</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="3">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="3">
         <v>6</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>360</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="3">
+        <v>150</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3">
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
         <v>100</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="4" t="s">
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Q25" s="3">
-        <v>0</v>
-      </c>
-      <c r="R25" s="3">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
         <v>40</v>
       </c>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
-      <c r="AB25" s="3">
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AD25" s="3">
         <f t="shared" si="25"/>
         <v>1.6</v>
       </c>
-      <c r="AC25" s="3">
+      <c r="AE25" s="3">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AF25" s="3">
         <f t="shared" si="27"/>
         <v>2</v>
       </c>
-      <c r="AE25" s="3">
+      <c r="AG25" s="3">
         <f t="shared" si="28"/>
         <v>4</v>
       </c>
-      <c r="AF25" s="3">
+      <c r="AH25" s="3">
         <f t="shared" si="29"/>
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="3">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="3">
         <v>7</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>560</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="3">
+        <v>150</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>125</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="4" t="s">
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>50</v>
       </c>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
-      <c r="AB26" s="3">
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AD26" s="3">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <f t="shared" si="26"/>
         <v>1.25</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AF26" s="3">
         <f t="shared" si="27"/>
         <v>2.5</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AG26" s="3">
         <f t="shared" si="28"/>
         <v>5</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AH26" s="3">
         <f t="shared" si="29"/>
         <v>12.5</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="3">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="3">
         <v>8</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>860</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="3">
+        <v>150</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>150</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="4" t="s">
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>60</v>
       </c>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
-      <c r="AB27" s="3">
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AD27" s="3">
         <f t="shared" si="25"/>
         <v>2.4</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <f t="shared" si="26"/>
         <v>1.5</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AF27" s="3">
         <f t="shared" si="27"/>
         <v>3</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AG27" s="3">
         <f t="shared" si="28"/>
         <v>6</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AH27" s="3">
         <f t="shared" si="29"/>
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="3">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="3">
-        <v>1</v>
+      <c r="D28" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
         <v>50</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3">
+      <c r="G28" s="3">
+        <v>150</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
         <v>25</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>0</v>
-      </c>
-      <c r="R28" s="3">
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
         <v>10</v>
       </c>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
-      <c r="AB28" s="3">
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AD28" s="3">
         <f t="shared" si="25"/>
         <v>0.4</v>
       </c>
-      <c r="AC28" s="3">
+      <c r="AE28" s="3">
         <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
-      <c r="AD28" s="3">
+      <c r="AF28" s="3">
         <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
-      <c r="AE28" s="3">
+      <c r="AG28" s="3">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="AF28" s="3">
+      <c r="AH28" s="3">
         <f t="shared" si="29"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="B29" s="3">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="3">
         <v>2</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>80</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="G29" s="3">
+        <v>150</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>50</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>20</v>
       </c>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
-      <c r="AB29" s="3">
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AD29" s="3">
         <f t="shared" si="25"/>
         <v>0.8</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AE29" s="3">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AF29" s="3">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AG29" s="3">
         <f t="shared" si="28"/>
         <v>2</v>
       </c>
-      <c r="AF29" s="3">
+      <c r="AH29" s="3">
         <f t="shared" si="29"/>
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
       <c r="B30" s="3">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" s="3">
         <v>3</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F30" s="3">
         <v>120</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3">
+      <c r="G30" s="3">
+        <v>150</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
         <v>37</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>0</v>
-      </c>
-      <c r="R30" s="3">
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
         <v>15</v>
       </c>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
-      <c r="AB30" s="3">
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AD30" s="3">
         <f t="shared" si="25"/>
         <v>0.6</v>
       </c>
-      <c r="AC30" s="3">
+      <c r="AE30" s="3">
         <f t="shared" si="26"/>
         <v>0.375</v>
       </c>
-      <c r="AD30" s="3">
+      <c r="AF30" s="3">
         <f t="shared" si="27"/>
         <v>0.75</v>
       </c>
-      <c r="AE30" s="3">
+      <c r="AG30" s="3">
         <f t="shared" si="28"/>
         <v>1.5</v>
       </c>
-      <c r="AF30" s="3">
+      <c r="AH30" s="3">
         <f t="shared" si="29"/>
         <v>3.75</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
       <c r="B31" s="3">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="3">
         <v>4</v>
       </c>
-      <c r="E31" s="3">
+      <c r="F31" s="3">
         <v>170</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3">
+      <c r="G31" s="3">
+        <v>150</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
         <v>62</v>
       </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>0</v>
-      </c>
-      <c r="R31" s="3">
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
         <v>25</v>
       </c>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
-      <c r="AB31" s="3">
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AD31" s="3">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="AC31" s="3">
+      <c r="AE31" s="3">
         <f t="shared" si="26"/>
         <v>0.625</v>
       </c>
-      <c r="AD31" s="3">
+      <c r="AF31" s="3">
         <f t="shared" si="27"/>
         <v>1.25</v>
       </c>
-      <c r="AE31" s="3">
+      <c r="AG31" s="3">
         <f t="shared" si="28"/>
         <v>2.5</v>
       </c>
-      <c r="AF31" s="3">
+      <c r="AH31" s="3">
         <f t="shared" si="29"/>
         <v>6.25</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
       <c r="B32" s="3">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="3">
         <v>5</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>270</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="G32" s="3">
+        <v>150</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>40</v>
       </c>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
-      <c r="AB32" s="3">
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AD32" s="3">
         <f t="shared" si="25"/>
         <v>1.6</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AF32" s="3">
         <f t="shared" si="27"/>
         <v>2</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AG32" s="3">
         <f t="shared" si="28"/>
         <v>4</v>
       </c>
-      <c r="AF32" s="3">
+      <c r="AH32" s="3">
         <f t="shared" si="29"/>
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
       <c r="B33" s="3">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="3">
         <v>6</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>370</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="G33" s="3">
+        <v>150</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>50</v>
       </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>20</v>
       </c>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
-      <c r="AB33" s="3">
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AD33" s="3">
         <f t="shared" si="25"/>
         <v>0.8</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AF33" s="3">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AG33" s="3">
         <f t="shared" si="28"/>
         <v>2</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AH33" s="3">
         <f t="shared" si="29"/>
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
       <c r="B34" s="3">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="3">
         <v>7</v>
       </c>
-      <c r="E34" s="3">
+      <c r="F34" s="3">
         <v>570</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
+      <c r="G34" s="3">
+        <v>150</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
         <v>75</v>
       </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>0</v>
-      </c>
-      <c r="R34" s="3">
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
         <v>30</v>
       </c>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
-      <c r="AB34" s="3">
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AD34" s="3">
         <f t="shared" si="25"/>
         <v>1.2</v>
       </c>
-      <c r="AC34" s="3">
+      <c r="AE34" s="3">
         <f t="shared" si="26"/>
         <v>0.75</v>
       </c>
-      <c r="AD34" s="3">
+      <c r="AF34" s="3">
         <f t="shared" si="27"/>
         <v>1.5</v>
       </c>
-      <c r="AE34" s="3">
+      <c r="AG34" s="3">
         <f t="shared" si="28"/>
         <v>3</v>
       </c>
-      <c r="AF34" s="3">
+      <c r="AH34" s="3">
         <f t="shared" si="29"/>
         <v>7.5</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
       <c r="B35" s="3">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="3">
         <v>8</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>870</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="G35" s="3">
+        <v>150</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>50</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>20</v>
       </c>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
-      <c r="AB35" s="3">
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AD35" s="3">
         <f t="shared" si="25"/>
         <v>0.8</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AF35" s="3">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AG35" s="3">
         <f t="shared" si="28"/>
         <v>2</v>
       </c>
-      <c r="AF35" s="3">
+      <c r="AH35" s="3">
         <f t="shared" si="29"/>
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
       <c r="B36" s="3">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="3">
-        <v>1</v>
+      <c r="D36" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
         <v>60</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3">
+      <c r="G36" s="3">
+        <v>150</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
         <v>12</v>
       </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>0</v>
-      </c>
-      <c r="R36" s="3">
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="S36" s="3">
+        <v>0</v>
+      </c>
+      <c r="T36" s="3">
         <v>5</v>
       </c>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
-      <c r="AB36" s="3">
-        <f t="shared" ref="AB36:AB37" si="30">R36*1000^Q36*0.08/2</f>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AD36" s="3">
+        <f t="shared" ref="AD36:AD37" si="30">T36*1000^S36*0.08/2</f>
         <v>0.2</v>
       </c>
-      <c r="AC36" s="3">
-        <f t="shared" ref="AC36:AC37" si="31">R36*1000^Q36*0.05/2</f>
+      <c r="AE36" s="3">
+        <f t="shared" ref="AE36:AE37" si="31">T36*1000^S36*0.05/2</f>
         <v>0.125</v>
       </c>
-      <c r="AD36" s="3">
-        <f t="shared" ref="AD36:AD37" si="32">R36*1000^Q36*0.1/2</f>
+      <c r="AF36" s="3">
+        <f t="shared" ref="AF36:AF37" si="32">T36*1000^S36*0.1/2</f>
         <v>0.25</v>
       </c>
-      <c r="AE36" s="3">
-        <f t="shared" ref="AE36:AE37" si="33">R36*1000^Q36*0.2/2</f>
+      <c r="AG36" s="3">
+        <f t="shared" ref="AG36:AG37" si="33">T36*1000^S36*0.2/2</f>
         <v>0.5</v>
       </c>
-      <c r="AF36" s="3">
-        <f t="shared" ref="AF36:AF37" si="34">R36*1000^Q36*0.5/2</f>
+      <c r="AH36" s="3">
+        <f t="shared" ref="AH36:AH37" si="34">T36*1000^S36*0.5/2</f>
         <v>1.25</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
       <c r="B37" s="3">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E37" s="3">
         <v>2</v>
       </c>
-      <c r="E37" s="3">
+      <c r="F37" s="3">
         <v>90</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-      <c r="I37" s="3">
+      <c r="G37" s="3">
+        <v>150</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
         <v>25</v>
       </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>0</v>
-      </c>
-      <c r="R37" s="3">
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="S37" s="3">
+        <v>0</v>
+      </c>
+      <c r="T37" s="3">
         <v>10</v>
       </c>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
-      <c r="AB37" s="3">
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AD37" s="3">
         <f t="shared" si="30"/>
         <v>0.4</v>
       </c>
-      <c r="AC37" s="3">
+      <c r="AE37" s="3">
         <f t="shared" si="31"/>
         <v>0.25</v>
       </c>
-      <c r="AD37" s="3">
+      <c r="AF37" s="3">
         <f t="shared" si="32"/>
         <v>0.5</v>
       </c>
-      <c r="AE37" s="3">
+      <c r="AG37" s="3">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
-      <c r="AF37" s="3">
+      <c r="AH37" s="3">
         <f t="shared" si="34"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
       <c r="B38" s="3">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" s="3">
         <v>3</v>
       </c>
-      <c r="E38" s="3">
+      <c r="F38" s="3">
         <v>130</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="I38" s="3">
+      <c r="G38" s="3">
+        <v>150</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
         <v>50</v>
       </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>0</v>
-      </c>
-      <c r="R38" s="3">
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="S38" s="3">
+        <v>0</v>
+      </c>
+      <c r="T38" s="3">
         <v>20</v>
       </c>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
-      <c r="AB38" s="3">
-        <f t="shared" ref="AB38:AB43" si="35">R38*1000^Q38*0.08/2</f>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AD38" s="3">
+        <f t="shared" ref="AD38:AD43" si="35">T38*1000^S38*0.08/2</f>
         <v>0.8</v>
       </c>
-      <c r="AC38" s="3">
-        <f t="shared" ref="AC38:AC43" si="36">R38*1000^Q38*0.05/2</f>
+      <c r="AE38" s="3">
+        <f t="shared" ref="AE38:AE43" si="36">T38*1000^S38*0.05/2</f>
         <v>0.5</v>
       </c>
-      <c r="AD38" s="3">
-        <f t="shared" ref="AD38:AD43" si="37">R38*1000^Q38*0.1/2</f>
-        <v>1</v>
-      </c>
-      <c r="AE38" s="3">
-        <f t="shared" ref="AE38:AE43" si="38">R38*1000^Q38*0.2/2</f>
+      <c r="AF38" s="3">
+        <f t="shared" ref="AF38:AF43" si="37">T38*1000^S38*0.1/2</f>
+        <v>1</v>
+      </c>
+      <c r="AG38" s="3">
+        <f t="shared" ref="AG38:AG43" si="38">T38*1000^S38*0.2/2</f>
         <v>2</v>
       </c>
-      <c r="AF38" s="3">
-        <f t="shared" ref="AF38:AF43" si="39">R38*1000^Q38*0.5/2</f>
+      <c r="AH38" s="3">
+        <f t="shared" ref="AH38:AH43" si="39">T38*1000^S38*0.5/2</f>
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
       <c r="B39" s="3">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="3">
         <v>4</v>
       </c>
-      <c r="E39" s="3">
+      <c r="F39" s="3">
         <v>180</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0</v>
-      </c>
-      <c r="I39" s="3">
+      <c r="G39" s="3">
+        <v>150</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
         <v>62</v>
       </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>0</v>
-      </c>
-      <c r="R39" s="3">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="S39" s="3">
+        <v>0</v>
+      </c>
+      <c r="T39" s="3">
         <v>25</v>
       </c>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-      <c r="AB39" s="3">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AD39" s="3">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="AC39" s="3">
+      <c r="AE39" s="3">
         <f t="shared" si="36"/>
         <v>0.625</v>
       </c>
-      <c r="AD39" s="3">
+      <c r="AF39" s="3">
         <f t="shared" si="37"/>
         <v>1.25</v>
       </c>
-      <c r="AE39" s="3">
+      <c r="AG39" s="3">
         <f t="shared" si="38"/>
         <v>2.5</v>
       </c>
-      <c r="AF39" s="3">
+      <c r="AH39" s="3">
         <f t="shared" si="39"/>
         <v>6.25</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>37</v>
       </c>
       <c r="B40" s="3">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E40" s="3">
         <v>5</v>
       </c>
-      <c r="E40" s="3">
+      <c r="F40" s="3">
         <v>280</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H40" s="3">
-        <v>0</v>
-      </c>
-      <c r="I40" s="3">
+      <c r="G40" s="3">
+        <v>150</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3">
         <v>87</v>
       </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>0</v>
-      </c>
-      <c r="R40" s="3">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="S40" s="3">
+        <v>0</v>
+      </c>
+      <c r="T40" s="3">
         <v>35</v>
       </c>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-      <c r="AB40" s="3">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AD40" s="3">
         <f t="shared" si="35"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="AC40" s="3">
+      <c r="AE40" s="3">
         <f t="shared" si="36"/>
         <v>0.875</v>
       </c>
-      <c r="AD40" s="3">
+      <c r="AF40" s="3">
         <f t="shared" si="37"/>
         <v>1.75</v>
       </c>
-      <c r="AE40" s="3">
+      <c r="AG40" s="3">
         <f t="shared" si="38"/>
         <v>3.5</v>
       </c>
-      <c r="AF40" s="3">
+      <c r="AH40" s="3">
         <f t="shared" si="39"/>
         <v>8.75</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
       <c r="B41" s="3">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="3">
         <v>6</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>380</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="G41" s="3">
+        <v>150</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>40</v>
       </c>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
-      <c r="AB41" s="3">
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AD41" s="3">
         <f t="shared" si="35"/>
         <v>1.6</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AF41" s="3">
         <f t="shared" si="37"/>
         <v>2</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AG41" s="3">
         <f t="shared" si="38"/>
         <v>4</v>
       </c>
-      <c r="AF41" s="3">
+      <c r="AH41" s="3">
         <f t="shared" si="39"/>
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>39</v>
       </c>
       <c r="B42" s="3">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" s="3">
         <v>7</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>580</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="G42" s="3">
+        <v>150</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>125</v>
       </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>50</v>
       </c>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
-      <c r="AB42" s="3">
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AD42" s="3">
         <f t="shared" si="35"/>
         <v>2</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <f t="shared" si="36"/>
         <v>1.25</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AF42" s="3">
         <f t="shared" si="37"/>
         <v>2.5</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AG42" s="3">
         <f t="shared" si="38"/>
         <v>5</v>
       </c>
-      <c r="AF42" s="3">
+      <c r="AH42" s="3">
         <f t="shared" si="39"/>
         <v>12.5</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>40</v>
       </c>
       <c r="B43" s="3">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" s="3">
         <v>8</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>880</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="G43" s="3">
         <v>150</v>
       </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
+      <c r="H43" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>150</v>
+      </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>60</v>
       </c>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
-      <c r="AB43" s="3">
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AD43" s="3">
         <f t="shared" si="35"/>
         <v>2.4</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <f t="shared" si="36"/>
         <v>1.5</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AF43" s="3">
         <f t="shared" si="37"/>
         <v>3</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AG43" s="3">
         <f t="shared" si="38"/>
         <v>6</v>
       </c>
-      <c r="AF43" s="3">
+      <c r="AH43" s="3">
         <f t="shared" si="39"/>
         <v>15</v>
       </c>
@@ -5133,7 +5549,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5172,7 +5588,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>59</v>
@@ -5192,13 +5608,13 @@
         <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
         <v>58</v>
@@ -5224,7 +5640,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>64</v>
@@ -5244,13 +5660,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E4" s="3">
         <v>20</v>
@@ -5270,13 +5686,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E5" s="3">
         <v>20</v>
@@ -5296,13 +5712,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E6" s="3">
         <v>40</v>
@@ -5322,13 +5738,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E7" s="3">
         <v>50</v>
@@ -5348,13 +5764,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E8" s="3">
         <v>80</v>

--- a/Excel/dalayBtCy.日常副本.xlsx
+++ b/Excel/dalayBtCy.日常副本.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1574332E-27CB-4B76-B78D-661F36697131}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52364C5-4FE7-41F0-BD9E-145A58DA33D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="177">
   <si>
     <t>sheet名</t>
   </si>
@@ -1192,6 +1192,10 @@
   </si>
   <si>
     <t>宠物丹</t>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1843,7 +1847,7 @@
   <dimension ref="A1:AS43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1974,7 +1978,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>

--- a/Excel/dalayBtCy.日常副本.xlsx
+++ b/Excel/dalayBtCy.日常副本.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52364C5-4FE7-41F0-BD9E-145A58DA33D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39E380B-CCD2-4819-A743-B2040022FC72}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="185">
   <si>
     <t>sheet名</t>
   </si>
@@ -1195,6 +1195,86 @@
   </si>
   <si>
     <t>int:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>old</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>iti</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>inghua</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ianwei</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lingjian</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1846,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD4C86E-3FE1-4B15-B1FC-0EF7D34D9D28}">
   <dimension ref="A1:AS43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5550,38 +5630,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F794D778-BB92-4FA9-86D4-F7B90F08A8B6}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
-    <col min="7" max="7" width="9.625" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
-    <col min="16" max="16" width="22.125" customWidth="1"/>
-    <col min="17" max="17" width="22.25" customWidth="1"/>
-    <col min="18" max="18" width="22.375" customWidth="1"/>
-    <col min="19" max="19" width="21.625" customWidth="1"/>
-    <col min="20" max="20" width="25.125" customWidth="1"/>
-    <col min="21" max="21" width="23.5" customWidth="1"/>
-    <col min="22" max="22" width="19.875" customWidth="1"/>
-    <col min="23" max="23" width="23.75" customWidth="1"/>
-    <col min="24" max="25" width="23.25" customWidth="1"/>
-    <col min="26" max="26" width="22.25" customWidth="1"/>
-    <col min="27" max="27" width="23" customWidth="1"/>
-    <col min="28" max="28" width="21" customWidth="1"/>
-    <col min="29" max="29" width="22.5" customWidth="1"/>
-    <col min="30" max="31" width="20.625" customWidth="1"/>
-    <col min="32" max="32" width="25.625" customWidth="1"/>
-    <col min="33" max="33" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="17" max="17" width="22.125" customWidth="1"/>
+    <col min="18" max="18" width="22.25" customWidth="1"/>
+    <col min="19" max="19" width="22.375" customWidth="1"/>
+    <col min="20" max="20" width="21.625" customWidth="1"/>
+    <col min="21" max="21" width="25.125" customWidth="1"/>
+    <col min="22" max="22" width="23.5" customWidth="1"/>
+    <col min="23" max="23" width="19.875" customWidth="1"/>
+    <col min="24" max="24" width="23.75" customWidth="1"/>
+    <col min="25" max="26" width="23.25" customWidth="1"/>
+    <col min="27" max="27" width="22.25" customWidth="1"/>
+    <col min="28" max="28" width="23" customWidth="1"/>
+    <col min="29" max="29" width="21" customWidth="1"/>
+    <col min="30" max="30" width="22.5" customWidth="1"/>
+    <col min="31" max="32" width="20.625" customWidth="1"/>
+    <col min="33" max="33" width="25.625" customWidth="1"/>
+    <col min="34" max="34" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -5592,22 +5674,25 @@
         <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -5618,10 +5703,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" t="s">
         <v>120</v>
-      </c>
-      <c r="E2" t="s">
-        <v>58</v>
       </c>
       <c r="F2" t="s">
         <v>58</v>
@@ -5630,10 +5715,13 @@
         <v>58</v>
       </c>
       <c r="H2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>54</v>
       </c>
@@ -5644,22 +5732,25 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -5669,23 +5760,26 @@
       <c r="C4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>20</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>30</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>3</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -5695,23 +5789,26 @@
       <c r="C5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>20</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>40</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>3</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -5721,23 +5818,26 @@
       <c r="C6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>40</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>50</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>3</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -5747,23 +5847,26 @@
       <c r="C7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>50</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>70</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>3</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -5774,18 +5877,21 @@
         <v>89</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>80</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>90</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>72</v>
       </c>
     </row>

--- a/Excel/dalayBtCy.日常副本.xlsx
+++ b/Excel/dalayBtCy.日常副本.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39E380B-CCD2-4819-A743-B2040022FC72}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9848E612-3392-4672-8DEF-829FA2B6E779}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1023,46 +1023,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>小怪1.w</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪1.v</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪2.w</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪2.v</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>精英怪.w</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>精英怪.v</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守卫.w</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守卫.v</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS.w</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS.v</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>初级精炼石</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1275,6 +1235,46 @@
   </si>
   <si>
     <t>img</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪1.min</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪1.max</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪2.min</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪2.max</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英怪.min</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英怪.max</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守卫.min</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守卫.max</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS.min</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS.max</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1830,20 +1830,20 @@
     </row>
     <row r="2" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1851,20 +1851,20 @@
     </row>
     <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -1872,20 +1872,20 @@
     </row>
     <row r="4" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>1</v>
@@ -1893,20 +1893,20 @@
     </row>
     <row r="5" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>1</v>
@@ -1926,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD4C86E-3FE1-4B15-B1FC-0EF7D34D9D28}">
   <dimension ref="A1:AS43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B11"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AP19" sqref="AP19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1959,6 +1959,14 @@
     <col min="31" max="31" width="9.625" customWidth="1"/>
     <col min="32" max="32" width="9.625" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.5" customWidth="1"/>
+    <col min="37" max="37" width="11" customWidth="1"/>
+    <col min="38" max="38" width="10" customWidth="1"/>
+    <col min="39" max="39" width="10.625" customWidth="1"/>
+    <col min="40" max="40" width="11.125" customWidth="1"/>
+    <col min="41" max="41" width="10.875" customWidth="1"/>
+    <col min="44" max="44" width="9.625" customWidth="1"/>
+    <col min="45" max="45" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="15" x14ac:dyDescent="0.2">
@@ -1972,7 +1980,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>13</v>
@@ -1981,7 +1989,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>117</v>
@@ -2058,7 +2066,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -2147,7 +2155,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
@@ -2156,7 +2164,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>118</v>
@@ -2189,31 +2197,31 @@
         <v>52</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="AD3" s="2" t="s">
         <v>128</v>
@@ -2231,34 +2239,34 @@
         <v>132</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
@@ -2272,7 +2280,7 @@
         <v>73</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -2337,44 +2345,44 @@
         <v>10000</v>
       </c>
       <c r="AJ4">
-        <f>INT(LOG(AD4,1000))</f>
-        <v>1</v>
+        <f>AD4*0.5</f>
+        <v>800</v>
       </c>
       <c r="AK4">
-        <f>ROUND(AD4/1000^AJ4,1)</f>
-        <v>1.6</v>
+        <f>AD4*1.5</f>
+        <v>2400</v>
       </c>
       <c r="AL4">
-        <f>INT(LOG(AE4,1000))</f>
-        <v>1</v>
+        <f>AE4*0.5</f>
+        <v>500</v>
       </c>
       <c r="AM4">
-        <f>ROUND(AE4/1000^AL4,1)</f>
-        <v>1</v>
+        <f>AE4*1.5</f>
+        <v>1500</v>
       </c>
       <c r="AN4">
-        <f>INT(LOG(AF4,1000))</f>
-        <v>1</v>
+        <f>AF4*0.5</f>
+        <v>1000</v>
       </c>
       <c r="AO4">
-        <f>ROUND(AF4/1000^AN4,1)</f>
-        <v>2</v>
+        <f>AF4*1.5</f>
+        <v>3000</v>
       </c>
       <c r="AP4">
-        <f>INT(LOG(AG4,1000))</f>
-        <v>1</v>
+        <f>AG4*0.5</f>
+        <v>2000</v>
       </c>
       <c r="AQ4">
-        <f>ROUND(AG4/1000^AP4,1)</f>
-        <v>4</v>
+        <f>AG4*1.5</f>
+        <v>6000</v>
       </c>
       <c r="AR4">
-        <f>INT(LOG(AH4,1000))</f>
-        <v>1</v>
+        <f>AH4*0.5</f>
+        <v>5000</v>
       </c>
       <c r="AS4">
-        <f>ROUND(AH4/1000^AR4,1)</f>
-        <v>10</v>
+        <f>AH4*1.5</f>
+        <v>15000</v>
       </c>
     </row>
     <row r="5" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
@@ -2388,7 +2396,7 @@
         <v>74</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
@@ -2453,44 +2461,44 @@
         <v>50000</v>
       </c>
       <c r="AJ5">
-        <f t="shared" ref="AJ5:AJ11" si="5">INT(LOG(AD5,1000))</f>
-        <v>1</v>
+        <f t="shared" ref="AJ5:AJ11" si="5">AD5*0.5</f>
+        <v>4000</v>
       </c>
       <c r="AK5">
-        <f t="shared" ref="AK5:AK11" si="6">ROUND(AD5/1000^AJ5,1)</f>
-        <v>8</v>
+        <f t="shared" ref="AK5:AK11" si="6">AD5*1.5</f>
+        <v>12000</v>
       </c>
       <c r="AL5">
-        <f t="shared" ref="AL5:AL11" si="7">INT(LOG(AE5,1000))</f>
-        <v>1</v>
+        <f t="shared" ref="AL5:AL11" si="7">AE5*0.5</f>
+        <v>2500</v>
       </c>
       <c r="AM5">
-        <f t="shared" ref="AM5:AM11" si="8">ROUND(AE5/1000^AL5,1)</f>
-        <v>5</v>
+        <f t="shared" ref="AM5:AM11" si="8">AE5*1.5</f>
+        <v>7500</v>
       </c>
       <c r="AN5">
-        <f t="shared" ref="AN5:AN11" si="9">INT(LOG(AF5,1000))</f>
-        <v>1</v>
+        <f t="shared" ref="AN5:AN11" si="9">AF5*0.5</f>
+        <v>5000</v>
       </c>
       <c r="AO5">
-        <f t="shared" ref="AO5:AO11" si="10">ROUND(AF5/1000^AN5,1)</f>
-        <v>10</v>
+        <f t="shared" ref="AO5:AO11" si="10">AF5*1.5</f>
+        <v>15000</v>
       </c>
       <c r="AP5">
-        <f t="shared" ref="AP5:AP11" si="11">INT(LOG(AG5,1000))</f>
-        <v>1</v>
+        <f t="shared" ref="AP5:AP11" si="11">AG5*0.5</f>
+        <v>10000</v>
       </c>
       <c r="AQ5">
-        <f t="shared" ref="AQ5:AQ11" si="12">ROUND(AG5/1000^AP5,1)</f>
-        <v>20</v>
+        <f t="shared" ref="AQ5:AQ11" si="12">AG5*1.5</f>
+        <v>30000</v>
       </c>
       <c r="AR5">
-        <f t="shared" ref="AR5:AR11" si="13">INT(LOG(AH5,1000))</f>
-        <v>1</v>
+        <f t="shared" ref="AR5:AR11" si="13">AH5*0.5</f>
+        <v>25000</v>
       </c>
       <c r="AS5">
-        <f t="shared" ref="AS5:AS11" si="14">ROUND(AH5/1000^AR5,1)</f>
-        <v>50</v>
+        <f t="shared" ref="AS5:AS11" si="14">AH5*1.5</f>
+        <v>75000</v>
       </c>
     </row>
     <row r="6" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
@@ -2504,7 +2512,7 @@
         <v>75</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
@@ -2570,43 +2578,43 @@
       </c>
       <c r="AJ6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>6000</v>
       </c>
       <c r="AK6">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>18000</v>
       </c>
       <c r="AL6">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>3750</v>
       </c>
       <c r="AM6">
         <f t="shared" si="8"/>
-        <v>7.5</v>
+        <v>11250</v>
       </c>
       <c r="AN6">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>7500</v>
       </c>
       <c r="AO6">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>22500</v>
       </c>
       <c r="AP6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>15000</v>
       </c>
       <c r="AQ6">
         <f t="shared" si="12"/>
-        <v>30</v>
+        <v>45000</v>
       </c>
       <c r="AR6">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>37500</v>
       </c>
       <c r="AS6">
         <f t="shared" si="14"/>
-        <v>75</v>
+        <v>112500</v>
       </c>
     </row>
     <row r="7" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
@@ -2620,7 +2628,7 @@
         <v>76</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E7" s="3">
         <v>4</v>
@@ -2686,43 +2694,43 @@
       </c>
       <c r="AJ7">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="AK7">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>60000</v>
       </c>
       <c r="AL7">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>12500</v>
       </c>
       <c r="AM7">
         <f t="shared" si="8"/>
-        <v>25</v>
+        <v>37500</v>
       </c>
       <c r="AN7">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>25000</v>
       </c>
       <c r="AO7">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>75000</v>
       </c>
       <c r="AP7">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="AQ7">
         <f t="shared" si="12"/>
-        <v>100</v>
+        <v>150000</v>
       </c>
       <c r="AR7">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>125000</v>
       </c>
       <c r="AS7">
         <f t="shared" si="14"/>
-        <v>250</v>
+        <v>375000</v>
       </c>
     </row>
     <row r="8" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
@@ -2736,7 +2744,7 @@
         <v>77</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E8" s="3">
         <v>5</v>
@@ -2802,43 +2810,43 @@
       </c>
       <c r="AJ8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>120000</v>
       </c>
       <c r="AK8">
         <f t="shared" si="6"/>
-        <v>240</v>
+        <v>360000</v>
       </c>
       <c r="AL8">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>75000</v>
       </c>
       <c r="AM8">
         <f t="shared" si="8"/>
-        <v>150</v>
+        <v>225000</v>
       </c>
       <c r="AN8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>150000</v>
       </c>
       <c r="AO8">
         <f t="shared" si="10"/>
-        <v>300</v>
+        <v>450000</v>
       </c>
       <c r="AP8">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>300000</v>
       </c>
       <c r="AQ8">
         <f t="shared" si="12"/>
-        <v>600</v>
+        <v>900000</v>
       </c>
       <c r="AR8">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>750000</v>
       </c>
       <c r="AS8">
         <f t="shared" si="14"/>
-        <v>1.5</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="9" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
@@ -2852,7 +2860,7 @@
         <v>78</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E9" s="3">
         <v>6</v>
@@ -2918,43 +2926,43 @@
       </c>
       <c r="AJ9">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>200000</v>
       </c>
       <c r="AK9">
         <f t="shared" si="6"/>
-        <v>400</v>
+        <v>600000</v>
       </c>
       <c r="AL9">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>125000</v>
       </c>
       <c r="AM9">
         <f t="shared" si="8"/>
-        <v>250</v>
+        <v>375000</v>
       </c>
       <c r="AN9">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>250000</v>
       </c>
       <c r="AO9">
         <f t="shared" si="10"/>
-        <v>500</v>
+        <v>750000</v>
       </c>
       <c r="AP9">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>500000</v>
       </c>
       <c r="AQ9">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>1500000</v>
       </c>
       <c r="AR9">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>1250000</v>
       </c>
       <c r="AS9">
         <f t="shared" si="14"/>
-        <v>2.5</v>
+        <v>3750000</v>
       </c>
     </row>
     <row r="10" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
@@ -2968,7 +2976,7 @@
         <v>79</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E10" s="3">
         <v>7</v>
@@ -3034,43 +3042,43 @@
       </c>
       <c r="AJ10">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>700000</v>
       </c>
       <c r="AK10">
         <f t="shared" si="6"/>
-        <v>1.4</v>
+        <v>2100000</v>
       </c>
       <c r="AL10">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>437500</v>
       </c>
       <c r="AM10">
         <f t="shared" si="8"/>
-        <v>875</v>
+        <v>1312500</v>
       </c>
       <c r="AN10">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>875000</v>
       </c>
       <c r="AO10">
         <f t="shared" si="10"/>
-        <v>1.8</v>
+        <v>2625000</v>
       </c>
       <c r="AP10">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1750000</v>
       </c>
       <c r="AQ10">
         <f t="shared" si="12"/>
-        <v>3.5</v>
+        <v>5250000</v>
       </c>
       <c r="AR10">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>4375000</v>
       </c>
       <c r="AS10">
         <f t="shared" si="14"/>
-        <v>8.8000000000000007</v>
+        <v>13125000</v>
       </c>
     </row>
     <row r="11" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
@@ -3084,7 +3092,7 @@
         <v>80</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E11" s="3">
         <v>8</v>
@@ -3150,43 +3158,43 @@
       </c>
       <c r="AJ11">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>2000000</v>
       </c>
       <c r="AK11">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6000000</v>
       </c>
       <c r="AL11">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1250000</v>
       </c>
       <c r="AM11">
         <f t="shared" si="8"/>
-        <v>2.5</v>
+        <v>3750000</v>
       </c>
       <c r="AN11">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>2500000</v>
       </c>
       <c r="AO11">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>7500000</v>
       </c>
       <c r="AP11">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>5000000</v>
       </c>
       <c r="AQ11">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>15000000</v>
       </c>
       <c r="AR11">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>12500000</v>
       </c>
       <c r="AS11">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>37500000</v>
       </c>
     </row>
     <row r="12" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
@@ -3200,7 +3208,7 @@
         <v>81</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -3276,7 +3284,7 @@
         <v>82</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
@@ -3352,7 +3360,7 @@
         <v>83</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E14" s="3">
         <v>3</v>
@@ -3428,7 +3436,7 @@
         <v>84</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E15" s="3">
         <v>4</v>
@@ -3504,7 +3512,7 @@
         <v>85</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E16" s="3">
         <v>5</v>
@@ -3580,7 +3588,7 @@
         <v>86</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E17" s="3">
         <v>6</v>
@@ -3656,7 +3664,7 @@
         <v>87</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E18" s="3">
         <v>7</v>
@@ -3732,7 +3740,7 @@
         <v>88</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E19" s="3">
         <v>8</v>
@@ -3808,7 +3816,7 @@
         <v>90</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -3884,7 +3892,7 @@
         <v>91</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
@@ -3960,7 +3968,7 @@
         <v>92</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
@@ -4036,7 +4044,7 @@
         <v>93</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E23" s="3">
         <v>4</v>
@@ -4112,7 +4120,7 @@
         <v>94</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E24" s="3">
         <v>5</v>
@@ -4188,7 +4196,7 @@
         <v>95</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E25" s="3">
         <v>6</v>
@@ -4264,7 +4272,7 @@
         <v>96</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E26" s="3">
         <v>7</v>
@@ -4340,7 +4348,7 @@
         <v>97</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E27" s="3">
         <v>8</v>
@@ -4416,7 +4424,7 @@
         <v>98</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -4431,7 +4439,7 @@
         <v>127</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J28" s="3">
         <v>0</v>
@@ -4446,7 +4454,7 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="S28" s="3">
         <v>0</v>
@@ -4492,7 +4500,7 @@
         <v>99</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E29" s="3">
         <v>2</v>
@@ -4507,7 +4515,7 @@
         <v>127</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -4522,7 +4530,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -4568,7 +4576,7 @@
         <v>100</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E30" s="3">
         <v>3</v>
@@ -4583,7 +4591,7 @@
         <v>127</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="J30" s="3">
         <v>0</v>
@@ -4598,7 +4606,7 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="S30" s="3">
         <v>0</v>
@@ -4644,7 +4652,7 @@
         <v>101</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E31" s="3">
         <v>4</v>
@@ -4659,7 +4667,7 @@
         <v>127</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="J31" s="3">
         <v>0</v>
@@ -4674,7 +4682,7 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="S31" s="3">
         <v>0</v>
@@ -4720,7 +4728,7 @@
         <v>102</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E32" s="3">
         <v>5</v>
@@ -4735,7 +4743,7 @@
         <v>127</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -4750,7 +4758,7 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -4796,7 +4804,7 @@
         <v>103</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E33" s="3">
         <v>6</v>
@@ -4811,7 +4819,7 @@
         <v>127</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
@@ -4826,7 +4834,7 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
@@ -4872,7 +4880,7 @@
         <v>104</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E34" s="3">
         <v>7</v>
@@ -4887,7 +4895,7 @@
         <v>127</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="J34" s="3">
         <v>0</v>
@@ -4902,7 +4910,7 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="S34" s="3">
         <v>0</v>
@@ -4948,7 +4956,7 @@
         <v>105</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E35" s="3">
         <v>8</v>
@@ -4963,7 +4971,7 @@
         <v>127</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -4978,7 +4986,7 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="4" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
@@ -5024,7 +5032,7 @@
         <v>106</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
@@ -5039,7 +5047,7 @@
         <v>127</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="J36" s="3">
         <v>0</v>
@@ -5054,7 +5062,7 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="S36" s="3">
         <v>0</v>
@@ -5100,7 +5108,7 @@
         <v>107</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E37" s="3">
         <v>2</v>
@@ -5115,7 +5123,7 @@
         <v>127</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="J37" s="3">
         <v>0</v>
@@ -5130,7 +5138,7 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="S37" s="3">
         <v>0</v>
@@ -5176,7 +5184,7 @@
         <v>108</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E38" s="3">
         <v>3</v>
@@ -5191,7 +5199,7 @@
         <v>127</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="J38" s="3">
         <v>0</v>
@@ -5206,7 +5214,7 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="S38" s="3">
         <v>0</v>
@@ -5252,7 +5260,7 @@
         <v>109</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E39" s="3">
         <v>4</v>
@@ -5267,7 +5275,7 @@
         <v>127</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="J39" s="3">
         <v>0</v>
@@ -5282,7 +5290,7 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="S39" s="3">
         <v>0</v>
@@ -5328,7 +5336,7 @@
         <v>110</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E40" s="3">
         <v>5</v>
@@ -5343,7 +5351,7 @@
         <v>127</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="J40" s="3">
         <v>0</v>
@@ -5358,7 +5366,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="S40" s="3">
         <v>0</v>
@@ -5404,7 +5412,7 @@
         <v>111</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E41" s="3">
         <v>6</v>
@@ -5419,7 +5427,7 @@
         <v>127</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -5434,7 +5442,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -5480,7 +5488,7 @@
         <v>112</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E42" s="3">
         <v>7</v>
@@ -5495,7 +5503,7 @@
         <v>127</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -5510,7 +5518,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -5556,7 +5564,7 @@
         <v>113</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E43" s="3">
         <v>8</v>
@@ -5571,7 +5579,7 @@
         <v>127</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -5586,7 +5594,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -5632,7 +5640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F794D778-BB92-4FA9-86D4-F7B90F08A8B6}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -5674,7 +5682,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>119</v>
@@ -5703,7 +5711,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
         <v>120</v>
@@ -5732,7 +5740,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>121</v>
@@ -5761,7 +5769,7 @@
         <v>65</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>122</v>
@@ -5790,7 +5798,7 @@
         <v>66</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>123</v>
@@ -5819,7 +5827,7 @@
         <v>67</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>124</v>
@@ -5848,7 +5856,7 @@
         <v>68</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>125</v>
@@ -5877,7 +5885,7 @@
         <v>89</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>126</v>

--- a/Excel/dalayBtCy.日常副本.xlsx
+++ b/Excel/dalayBtCy.日常副本.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9848E612-3392-4672-8DEF-829FA2B6E779}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BB2887-6CFD-4F57-BCB5-F0863A56EF27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="184">
   <si>
     <t>sheet名</t>
   </si>
@@ -1132,10 +1132,6 @@
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>type,rowId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1790,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1840,7 +1836,7 @@
         <v>160</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>159</v>
@@ -1897,7 +1893,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>155</v>
@@ -1906,7 +1902,7 @@
         <v>155</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>1</v>
@@ -1926,8 +1922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD4C86E-3FE1-4B15-B1FC-0EF7D34D9D28}">
   <dimension ref="A1:AS43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AP19" sqref="AP19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2066,7 +2062,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -2239,34 +2235,34 @@
         <v>132</v>
       </c>
       <c r="AJ3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK3" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
@@ -4971,7 +4967,7 @@
         <v>127</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -4986,7 +4982,7 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
@@ -5047,7 +5043,7 @@
         <v>127</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J36" s="3">
         <v>0</v>
@@ -5062,7 +5058,7 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S36" s="3">
         <v>0</v>
@@ -5123,7 +5119,7 @@
         <v>127</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J37" s="3">
         <v>0</v>
@@ -5138,7 +5134,7 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S37" s="3">
         <v>0</v>
@@ -5199,7 +5195,7 @@
         <v>127</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J38" s="3">
         <v>0</v>
@@ -5214,7 +5210,7 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S38" s="3">
         <v>0</v>
@@ -5275,7 +5271,7 @@
         <v>127</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J39" s="3">
         <v>0</v>
@@ -5290,7 +5286,7 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S39" s="3">
         <v>0</v>
@@ -5351,7 +5347,7 @@
         <v>127</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J40" s="3">
         <v>0</v>
@@ -5366,7 +5362,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S40" s="3">
         <v>0</v>
@@ -5427,7 +5423,7 @@
         <v>127</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -5442,7 +5438,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -5503,7 +5499,7 @@
         <v>127</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -5518,7 +5514,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -5579,7 +5575,7 @@
         <v>127</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -5594,7 +5590,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -5641,7 +5637,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B4" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5682,7 +5678,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>119</v>
@@ -5711,7 +5707,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
         <v>120</v>
@@ -5740,7 +5736,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>121</v>
@@ -5769,7 +5765,7 @@
         <v>65</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>122</v>
@@ -5798,7 +5794,7 @@
         <v>66</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>123</v>
@@ -5827,7 +5823,7 @@
         <v>67</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>124</v>
@@ -5856,7 +5852,7 @@
         <v>68</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>125</v>
@@ -5885,7 +5881,7 @@
         <v>89</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>126</v>

--- a/Excel/dalayBtCy.日常副本.xlsx
+++ b/Excel/dalayBtCy.日常副本.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BB2887-6CFD-4F57-BCB5-F0863A56EF27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259605A6-1D15-44E5-BA3F-017E1FED4692}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="186">
   <si>
     <t>sheet名</t>
   </si>
@@ -230,10 +230,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>times</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -283,34 +279,6 @@
   </si>
   <si>
     <t>精炼纤维本</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,0,20</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,35</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,40</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,50</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1271,6 +1239,34 @@
   </si>
   <si>
     <t>BOSS.max</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeTimes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyTimes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,30,50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,50,60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,50,65</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,60,80</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1786,7 +1782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1826,20 +1822,20 @@
     </row>
     <row r="2" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1847,20 +1843,20 @@
     </row>
     <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -1868,20 +1864,20 @@
     </row>
     <row r="4" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>1</v>
@@ -1889,20 +1885,20 @@
     </row>
     <row r="5" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>1</v>
@@ -1976,7 +1972,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>13</v>
@@ -1985,10 +1981,10 @@
         <v>14</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>21</v>
@@ -2062,13 +2058,13 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
         <v>39</v>
@@ -2151,7 +2147,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
@@ -2160,10 +2156,10 @@
         <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>44</v>
@@ -2193,76 +2189,76 @@
         <v>52</v>
       </c>
       <c r="R3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="AD3" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AJ3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO3" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:45" ht="16.5" x14ac:dyDescent="0.2">
@@ -2273,10 +2269,10 @@
         <v>101</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -2288,10 +2284,10 @@
         <v>150</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
@@ -2306,7 +2302,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S4" s="3">
         <v>1</v>
@@ -2389,10 +2385,10 @@
         <v>101</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
@@ -2404,10 +2400,10 @@
         <v>150</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J5" s="3">
         <v>1</v>
@@ -2422,7 +2418,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S5" s="3">
         <v>1</v>
@@ -2505,10 +2501,10 @@
         <v>101</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
@@ -2520,10 +2516,10 @@
         <v>150</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J6" s="3">
         <v>1</v>
@@ -2538,7 +2534,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S6" s="3">
         <v>1</v>
@@ -2621,10 +2617,10 @@
         <v>101</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E7" s="3">
         <v>4</v>
@@ -2636,10 +2632,10 @@
         <v>150</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J7" s="3">
         <v>2</v>
@@ -2654,7 +2650,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S7" s="3">
         <v>2</v>
@@ -2737,10 +2733,10 @@
         <v>101</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E8" s="3">
         <v>5</v>
@@ -2752,10 +2748,10 @@
         <v>150</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J8" s="3">
         <v>2</v>
@@ -2770,7 +2766,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S8" s="3">
         <v>2</v>
@@ -2853,10 +2849,10 @@
         <v>101</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E9" s="3">
         <v>6</v>
@@ -2868,10 +2864,10 @@
         <v>150</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J9" s="3">
         <v>2</v>
@@ -2886,7 +2882,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S9" s="3">
         <v>2</v>
@@ -2969,10 +2965,10 @@
         <v>101</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E10" s="3">
         <v>7</v>
@@ -2984,10 +2980,10 @@
         <v>150</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J10" s="3">
         <v>2</v>
@@ -3002,7 +2998,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S10" s="3">
         <v>2</v>
@@ -3085,10 +3081,10 @@
         <v>101</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E11" s="3">
         <v>8</v>
@@ -3100,10 +3096,10 @@
         <v>150</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J11" s="3">
         <v>2</v>
@@ -3118,7 +3114,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S11" s="3">
         <v>2</v>
@@ -3201,10 +3197,10 @@
         <v>102</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -3216,10 +3212,10 @@
         <v>150</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -3234,7 +3230,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
@@ -3277,10 +3273,10 @@
         <v>102</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
@@ -3292,10 +3288,10 @@
         <v>150</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
@@ -3310,7 +3306,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="S13" s="3">
         <v>0</v>
@@ -3353,10 +3349,10 @@
         <v>102</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E14" s="3">
         <v>3</v>
@@ -3368,10 +3364,10 @@
         <v>150</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -3386,7 +3382,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -3429,10 +3425,10 @@
         <v>102</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E15" s="3">
         <v>4</v>
@@ -3444,10 +3440,10 @@
         <v>150</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -3462,7 +3458,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -3505,10 +3501,10 @@
         <v>102</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E16" s="3">
         <v>5</v>
@@ -3520,10 +3516,10 @@
         <v>150</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J16" s="3">
         <v>0</v>
@@ -3538,7 +3534,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="S16" s="3">
         <v>0</v>
@@ -3581,10 +3577,10 @@
         <v>102</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E17" s="3">
         <v>6</v>
@@ -3596,10 +3592,10 @@
         <v>150</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -3614,7 +3610,7 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="S17" s="3">
         <v>0</v>
@@ -3657,10 +3653,10 @@
         <v>102</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E18" s="3">
         <v>7</v>
@@ -3672,10 +3668,10 @@
         <v>150</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -3690,7 +3686,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
@@ -3733,10 +3729,10 @@
         <v>102</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E19" s="3">
         <v>8</v>
@@ -3748,10 +3744,10 @@
         <v>150</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J19" s="3">
         <v>0</v>
@@ -3766,7 +3762,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="S19" s="3">
         <v>0</v>
@@ -3809,10 +3805,10 @@
         <v>103</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -3824,10 +3820,10 @@
         <v>150</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -3842,7 +3838,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -3885,10 +3881,10 @@
         <v>103</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
@@ -3900,10 +3896,10 @@
         <v>150</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -3918,7 +3914,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="S21" s="3">
         <v>0</v>
@@ -3961,10 +3957,10 @@
         <v>103</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
@@ -3976,10 +3972,10 @@
         <v>150</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -3994,7 +3990,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -4037,10 +4033,10 @@
         <v>103</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E23" s="3">
         <v>4</v>
@@ -4052,10 +4048,10 @@
         <v>150</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -4070,7 +4066,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
@@ -4113,10 +4109,10 @@
         <v>103</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E24" s="3">
         <v>5</v>
@@ -4128,10 +4124,10 @@
         <v>150</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -4146,7 +4142,7 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -4189,10 +4185,10 @@
         <v>103</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E25" s="3">
         <v>6</v>
@@ -4204,10 +4200,10 @@
         <v>150</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J25" s="3">
         <v>0</v>
@@ -4222,7 +4218,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="S25" s="3">
         <v>0</v>
@@ -4265,10 +4261,10 @@
         <v>103</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E26" s="3">
         <v>7</v>
@@ -4280,10 +4276,10 @@
         <v>150</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -4298,7 +4294,7 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
@@ -4341,10 +4337,10 @@
         <v>103</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E27" s="3">
         <v>8</v>
@@ -4356,10 +4352,10 @@
         <v>150</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -4374,7 +4370,7 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
@@ -4417,10 +4413,10 @@
         <v>104</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -4432,10 +4428,10 @@
         <v>150</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J28" s="3">
         <v>0</v>
@@ -4450,7 +4446,7 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="S28" s="3">
         <v>0</v>
@@ -4493,10 +4489,10 @@
         <v>104</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E29" s="3">
         <v>2</v>
@@ -4508,10 +4504,10 @@
         <v>150</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -4526,7 +4522,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -4569,10 +4565,10 @@
         <v>104</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E30" s="3">
         <v>3</v>
@@ -4584,10 +4580,10 @@
         <v>150</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J30" s="3">
         <v>0</v>
@@ -4602,7 +4598,7 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="S30" s="3">
         <v>0</v>
@@ -4645,10 +4641,10 @@
         <v>104</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E31" s="3">
         <v>4</v>
@@ -4660,10 +4656,10 @@
         <v>150</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J31" s="3">
         <v>0</v>
@@ -4678,7 +4674,7 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="S31" s="3">
         <v>0</v>
@@ -4721,10 +4717,10 @@
         <v>104</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E32" s="3">
         <v>5</v>
@@ -4736,10 +4732,10 @@
         <v>150</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -4754,7 +4750,7 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -4797,10 +4793,10 @@
         <v>104</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E33" s="3">
         <v>6</v>
@@ -4812,10 +4808,10 @@
         <v>150</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
@@ -4830,7 +4826,7 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
@@ -4873,10 +4869,10 @@
         <v>104</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E34" s="3">
         <v>7</v>
@@ -4888,10 +4884,10 @@
         <v>150</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J34" s="3">
         <v>0</v>
@@ -4906,7 +4902,7 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="S34" s="3">
         <v>0</v>
@@ -4949,10 +4945,10 @@
         <v>104</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E35" s="3">
         <v>8</v>
@@ -4964,10 +4960,10 @@
         <v>150</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -4982,7 +4978,7 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
@@ -5025,10 +5021,10 @@
         <v>105</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
@@ -5040,10 +5036,10 @@
         <v>150</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J36" s="3">
         <v>0</v>
@@ -5058,7 +5054,7 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="S36" s="3">
         <v>0</v>
@@ -5101,10 +5097,10 @@
         <v>105</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E37" s="3">
         <v>2</v>
@@ -5116,10 +5112,10 @@
         <v>150</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J37" s="3">
         <v>0</v>
@@ -5134,7 +5130,7 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="S37" s="3">
         <v>0</v>
@@ -5177,10 +5173,10 @@
         <v>105</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E38" s="3">
         <v>3</v>
@@ -5192,10 +5188,10 @@
         <v>150</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J38" s="3">
         <v>0</v>
@@ -5210,7 +5206,7 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="S38" s="3">
         <v>0</v>
@@ -5253,10 +5249,10 @@
         <v>105</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E39" s="3">
         <v>4</v>
@@ -5268,10 +5264,10 @@
         <v>150</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J39" s="3">
         <v>0</v>
@@ -5286,7 +5282,7 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="S39" s="3">
         <v>0</v>
@@ -5329,10 +5325,10 @@
         <v>105</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E40" s="3">
         <v>5</v>
@@ -5344,10 +5340,10 @@
         <v>150</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J40" s="3">
         <v>0</v>
@@ -5362,7 +5358,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="S40" s="3">
         <v>0</v>
@@ -5405,10 +5401,10 @@
         <v>105</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E41" s="3">
         <v>6</v>
@@ -5420,10 +5416,10 @@
         <v>150</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -5438,7 +5434,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -5481,10 +5477,10 @@
         <v>105</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E42" s="3">
         <v>7</v>
@@ -5496,10 +5492,10 @@
         <v>150</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -5514,7 +5510,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -5557,10 +5553,10 @@
         <v>105</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E43" s="3">
         <v>8</v>
@@ -5572,10 +5568,10 @@
         <v>150</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -5590,7 +5586,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -5634,10 +5630,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F794D778-BB92-4FA9-86D4-F7B90F08A8B6}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5647,27 +5643,27 @@
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="9.625" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
-    <col min="17" max="17" width="22.125" customWidth="1"/>
-    <col min="18" max="18" width="22.25" customWidth="1"/>
-    <col min="19" max="19" width="22.375" customWidth="1"/>
-    <col min="20" max="20" width="21.625" customWidth="1"/>
-    <col min="21" max="21" width="25.125" customWidth="1"/>
-    <col min="22" max="22" width="23.5" customWidth="1"/>
-    <col min="23" max="23" width="19.875" customWidth="1"/>
-    <col min="24" max="24" width="23.75" customWidth="1"/>
-    <col min="25" max="26" width="23.25" customWidth="1"/>
-    <col min="27" max="27" width="22.25" customWidth="1"/>
-    <col min="28" max="28" width="23" customWidth="1"/>
-    <col min="29" max="29" width="21" customWidth="1"/>
-    <col min="30" max="30" width="22.5" customWidth="1"/>
-    <col min="31" max="32" width="20.625" customWidth="1"/>
-    <col min="33" max="33" width="25.625" customWidth="1"/>
-    <col min="34" max="34" width="23.375" customWidth="1"/>
+    <col min="8" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="18" max="18" width="22.125" customWidth="1"/>
+    <col min="19" max="19" width="22.25" customWidth="1"/>
+    <col min="20" max="20" width="22.375" customWidth="1"/>
+    <col min="21" max="21" width="21.625" customWidth="1"/>
+    <col min="22" max="22" width="25.125" customWidth="1"/>
+    <col min="23" max="23" width="23.5" customWidth="1"/>
+    <col min="24" max="24" width="19.875" customWidth="1"/>
+    <col min="25" max="25" width="23.75" customWidth="1"/>
+    <col min="26" max="27" width="23.25" customWidth="1"/>
+    <col min="28" max="28" width="22.25" customWidth="1"/>
+    <col min="29" max="29" width="23" customWidth="1"/>
+    <col min="30" max="30" width="21" customWidth="1"/>
+    <col min="31" max="31" width="22.5" customWidth="1"/>
+    <col min="32" max="33" width="20.625" customWidth="1"/>
+    <col min="34" max="34" width="25.625" customWidth="1"/>
+    <col min="35" max="35" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -5678,27 +5674,30 @@
         <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>57</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -5707,54 +5706,60 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>62</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -5762,13 +5767,13 @@
         <v>101</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F4" s="3">
         <v>20</v>
@@ -5777,13 +5782,16 @@
         <v>30</v>
       </c>
       <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3">
         <v>3</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>69</v>
+      <c r="J4" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -5791,13 +5799,13 @@
         <v>102</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F5" s="3">
         <v>20</v>
@@ -5806,13 +5814,16 @@
         <v>40</v>
       </c>
       <c r="H5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3">
         <v>3</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>70</v>
+      <c r="J5" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -5820,13 +5831,13 @@
         <v>103</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
@@ -5835,13 +5846,16 @@
         <v>50</v>
       </c>
       <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
         <v>3</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>71</v>
+      <c r="J6" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -5849,13 +5863,13 @@
         <v>104</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F7" s="3">
         <v>50</v>
@@ -5864,13 +5878,16 @@
         <v>70</v>
       </c>
       <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3">
         <v>3</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>72</v>
+      <c r="J7" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -5878,13 +5895,13 @@
         <v>105</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F8" s="3">
         <v>80</v>
@@ -5893,10 +5910,13 @@
         <v>90</v>
       </c>
       <c r="H8" s="3">
+        <v>2</v>
+      </c>
+      <c r="I8" s="3">
         <v>3</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>72</v>
+      <c r="J8" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/dalayBtCy.日常副本.xlsx
+++ b/Excel/dalayBtCy.日常副本.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0CC4F1-D648-408D-A7A6-6F38B9BF9960}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20760" windowHeight="11610" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20760" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -12,12 +18,12 @@
     <sheet name="日常本类型" sheetId="29" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="30" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="257">
   <si>
     <t>sheet名</t>
   </si>
@@ -312,6 +318,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -321,6 +328,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>0,90,150,200</t>
@@ -377,6 +385,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>智慧机体本-</t>
@@ -386,6 +395,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -403,6 +413,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>智慧机体本-</t>
@@ -412,6 +423,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -426,6 +438,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>智慧机体本-</t>
@@ -435,6 +448,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -449,6 +463,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>智慧机体本-</t>
@@ -458,6 +473,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -472,6 +488,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>智慧机体本-</t>
@@ -481,6 +498,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -495,6 +513,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>智慧机体本-</t>
@@ -504,6 +523,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>6</t>
@@ -518,6 +538,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>智慧机体本-</t>
@@ -527,6 +548,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>7</t>
@@ -541,6 +563,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>智慧机体本-</t>
@@ -550,6 +573,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>8</t>
@@ -564,6 +588,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>精炼纤维本-</t>
@@ -573,6 +598,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -587,6 +613,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>精炼纤维本-</t>
@@ -596,6 +623,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -607,6 +635,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>精炼纤维本-</t>
@@ -616,6 +645,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -633,6 +663,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>精炼纤维本-</t>
@@ -642,6 +673,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -656,6 +688,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>精炼纤维本-</t>
@@ -665,6 +698,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -679,6 +713,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>精炼纤维本-</t>
@@ -688,6 +723,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>6</t>
@@ -705,6 +741,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>精炼纤维本-</t>
@@ -714,6 +751,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>7</t>
@@ -728,6 +766,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>精炼纤维本-</t>
@@ -737,6 +776,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>8</t>
@@ -754,6 +794,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>核子精华本-</t>
@@ -763,6 +804,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -780,6 +822,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>核子精华本-</t>
@@ -789,6 +832,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -803,6 +847,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>核子精华本-</t>
@@ -812,6 +857,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -826,6 +872,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>核子精华本-</t>
@@ -835,6 +882,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -849,6 +897,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>核子精华本-</t>
@@ -858,6 +907,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -872,6 +922,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>核子精华本-</t>
@@ -881,6 +932,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>6</t>
@@ -895,6 +947,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>核子精华本-</t>
@@ -904,6 +957,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>7</t>
@@ -918,6 +972,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>核子精华本-</t>
@@ -927,6 +982,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>8</t>
@@ -1043,6 +1099,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>g</t>
@@ -1052,6 +1109,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>old</t>
@@ -1075,6 +1133,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>j</t>
@@ -1084,6 +1143,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>iti</t>
@@ -1107,6 +1167,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>x</t>
@@ -1116,6 +1177,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ianwei</t>
@@ -1139,6 +1201,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>j</t>
@@ -1148,6 +1211,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>inghua</t>
@@ -1286,14 +1350,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1305,6 +1363,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1312,131 +1371,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1444,45 +1394,15 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1491,11 +1411,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1510,91 +1446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1606,109 +1458,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
+        <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1719,7 +1475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1743,104 +1499,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1852,269 +1510,81 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyFont="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" applyFont="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="33">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="60">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="33" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="13">
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="英文标题" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
-    <cellStyle name="因变Grid" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="Grid" xfId="33"/>
-    <cellStyle name="汇总" xfId="34" builtinId="25"/>
-    <cellStyle name="好" xfId="35" builtinId="26"/>
-    <cellStyle name="适中" xfId="36" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
-    <cellStyle name="纵向标题" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="大标题" xfId="48"/>
-    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="Normal" xfId="55"/>
-    <cellStyle name="常规 2" xfId="56"/>
-    <cellStyle name="超链接 2" xfId="57"/>
-    <cellStyle name="文本" xfId="58"/>
-    <cellStyle name="无效" xfId="59"/>
-    <cellStyle name="中文标题" xfId="60"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2372,19 +1842,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -2395,7 +1865,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2418,7 +1888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="54" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2439,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="47.25" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -2460,7 +1930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="57.75" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -2481,7 +1951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="55.5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -2502,31 +1972,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AT43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="15.375" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
     <col min="6" max="6" width="11.75" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="22.125" customWidth="1"/>
@@ -2560,7 +2029,7 @@
     <col min="46" max="46" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:27">
+    <row r="1" spans="1:46" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2643,7 +2112,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -2741,7 +2210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:46">
+    <row r="3" spans="1:46" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
@@ -2869,7 +2338,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:46">
+    <row r="4" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2988,7 +2457,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:46">
+    <row r="5" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3107,7 +2576,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:46">
+    <row r="6" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -3226,7 +2695,7 @@
         <v>112500</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:46">
+    <row r="7" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -3345,7 +2814,7 @@
         <v>375000</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:46">
+    <row r="8" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -3464,7 +2933,7 @@
         <v>2250000</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:46">
+    <row r="9" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -3583,7 +3052,7 @@
         <v>3750000</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:46">
+    <row r="10" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -3702,7 +3171,7 @@
         <v>13125000</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:46">
+    <row r="11" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -3821,7 +3290,7 @@
         <v>37500000</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:35">
+    <row r="12" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -3900,7 +3369,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:35">
+    <row r="13" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -3979,7 +3448,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:35">
+    <row r="14" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -4058,7 +3527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:35">
+    <row r="15" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -4137,7 +3606,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:35">
+    <row r="16" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -4197,7 +3666,7 @@
       <c r="AA16" s="1"/>
       <c r="AE16" s="1">
         <f t="shared" si="20"/>
-        <v>1.4</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="AF16" s="1">
         <f t="shared" si="21"/>
@@ -4216,7 +3685,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:35">
+    <row r="17" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -4295,7 +3764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:35">
+    <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -4374,7 +3843,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:35">
+    <row r="19" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -4453,7 +3922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:35">
+    <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -4532,7 +4001,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:35">
+    <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -4611,7 +4080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:35">
+    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -4690,7 +4159,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:35">
+    <row r="23" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -4769,7 +4238,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:35">
+    <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -4848,7 +4317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:35">
+    <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -4927,7 +4396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:35">
+    <row r="26" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -5006,7 +4475,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:35">
+    <row r="27" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -5085,7 +4554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:35">
+    <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -5144,27 +4613,27 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AE28" s="1">
-        <f t="shared" ref="AE28:AE43" si="25">U28*1000^T28*0.08/2</f>
+        <f t="shared" ref="AE28:AE35" si="25">U28*1000^T28*0.08/2</f>
         <v>0.2</v>
       </c>
       <c r="AF28" s="1">
-        <f t="shared" ref="AF28:AF43" si="26">U28*1000^T28*0.05/2</f>
+        <f t="shared" ref="AF28:AF35" si="26">U28*1000^T28*0.05/2</f>
         <v>0.125</v>
       </c>
       <c r="AG28" s="1">
-        <f t="shared" ref="AG28:AG43" si="27">U28*1000^T28*0.1/2</f>
+        <f t="shared" ref="AG28:AG35" si="27">U28*1000^T28*0.1/2</f>
         <v>0.25</v>
       </c>
       <c r="AH28" s="1">
-        <f t="shared" ref="AH28:AH43" si="28">U28*1000^T28*0.2/2</f>
+        <f t="shared" ref="AH28:AH35" si="28">U28*1000^T28*0.2/2</f>
         <v>0.5</v>
       </c>
       <c r="AI28" s="1">
-        <f t="shared" ref="AI28:AI43" si="29">U28*1000^T28*0.5/2</f>
+        <f t="shared" ref="AI28:AI35" si="29">U28*1000^T28*0.5/2</f>
         <v>1.25</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:35">
+    <row r="29" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -5243,7 +4712,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:35">
+    <row r="30" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -5322,7 +4791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:35">
+    <row r="31" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -5401,7 +4870,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:35">
+    <row r="32" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -5461,7 +4930,7 @@
       <c r="AA32" s="1"/>
       <c r="AE32" s="1">
         <f t="shared" si="25"/>
-        <v>1.4</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="AF32" s="1">
         <f t="shared" si="26"/>
@@ -5480,7 +4949,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:35">
+    <row r="33" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -5559,7 +5028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:35">
+    <row r="34" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -5638,7 +5107,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:35">
+    <row r="35" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -5717,7 +5186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:35">
+    <row r="36" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -5796,7 +5265,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:35">
+    <row r="37" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -5875,7 +5344,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:35">
+    <row r="38" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -5954,7 +5423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:35">
+    <row r="39" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -6033,7 +5502,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:35">
+    <row r="40" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -6093,7 +5562,7 @@
       <c r="AA40" s="1"/>
       <c r="AE40" s="1">
         <f t="shared" si="35"/>
-        <v>1.4</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="AF40" s="1">
         <f t="shared" si="36"/>
@@ -6112,7 +5581,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:35">
+    <row r="41" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -6191,7 +5660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:35">
+    <row r="42" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -6270,7 +5739,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:35">
+    <row r="43" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -6350,22 +5819,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
@@ -6394,7 +5862,7 @@
     <col min="37" max="37" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:12">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -6432,7 +5900,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -6470,7 +5938,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:12">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
@@ -6508,7 +5976,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:12">
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -6546,7 +6014,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:12">
+    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -6584,7 +6052,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:12">
+    <row r="6" spans="1:12" ht="33" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -6622,7 +6090,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:12">
+    <row r="7" spans="1:12" ht="33" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -6660,7 +6128,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:12">
+    <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -6699,26 +6167,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" spans="1:4">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>219</v>
       </c>
@@ -6733,7 +6200,7 @@
         <v>通过第2章-10关解锁</v>
       </c>
     </row>
-    <row r="2" ht="33" spans="1:4">
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>222</v>
       </c>
@@ -6748,7 +6215,7 @@
         <v>通过第5章-10关解锁</v>
       </c>
     </row>
-    <row r="3" ht="33" spans="1:4">
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>223</v>
       </c>
@@ -6763,7 +6230,7 @@
         <v>通过第8章-10关解锁</v>
       </c>
     </row>
-    <row r="4" ht="33" spans="1:4">
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>224</v>
       </c>
@@ -6778,7 +6245,7 @@
         <v>通过第13章-10关解锁</v>
       </c>
     </row>
-    <row r="5" ht="33" spans="1:4">
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>225</v>
       </c>
@@ -6793,7 +6260,7 @@
         <v>通过第22章-10关解锁</v>
       </c>
     </row>
-    <row r="6" ht="33" spans="1:4">
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>226</v>
       </c>
@@ -6808,7 +6275,7 @@
         <v>通过第30章-10关解锁</v>
       </c>
     </row>
-    <row r="7" ht="33" spans="1:4">
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>227</v>
       </c>
@@ -6823,7 +6290,7 @@
         <v>通过第50章-10关解锁</v>
       </c>
     </row>
-    <row r="8" ht="33" spans="1:4">
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>228</v>
       </c>
@@ -6838,7 +6305,7 @@
         <v>通过第80章-10关解锁</v>
       </c>
     </row>
-    <row r="9" ht="33" spans="1:4">
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>229</v>
       </c>
@@ -6853,7 +6320,7 @@
         <v>通过第3章-10关解锁</v>
       </c>
     </row>
-    <row r="10" ht="33" spans="1:4">
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>230</v>
       </c>
@@ -6868,7 +6335,7 @@
         <v>通过第6章-10关解锁</v>
       </c>
     </row>
-    <row r="11" ht="33" spans="1:4">
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>231</v>
       </c>
@@ -6883,7 +6350,7 @@
         <v>通过第10章-10关解锁</v>
       </c>
     </row>
-    <row r="12" ht="33" spans="1:4">
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>232</v>
       </c>
@@ -6898,7 +6365,7 @@
         <v>通过第15章-10关解锁</v>
       </c>
     </row>
-    <row r="13" ht="33" spans="1:4">
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>233</v>
       </c>
@@ -6913,7 +6380,7 @@
         <v>通过第25章-10关解锁</v>
       </c>
     </row>
-    <row r="14" ht="33" spans="1:4">
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>234</v>
       </c>
@@ -6928,7 +6395,7 @@
         <v>通过第35章-10关解锁</v>
       </c>
     </row>
-    <row r="15" ht="33" spans="1:4">
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>235</v>
       </c>
@@ -6943,7 +6410,7 @@
         <v>通过第55章-10关解锁</v>
       </c>
     </row>
-    <row r="16" ht="33" spans="1:4">
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>236</v>
       </c>
@@ -6958,7 +6425,7 @@
         <v>通过第85章-10关解锁</v>
       </c>
     </row>
-    <row r="17" ht="33" spans="1:4">
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>222</v>
       </c>
@@ -6973,7 +6440,7 @@
         <v>通过第5章-10关解锁</v>
       </c>
     </row>
-    <row r="18" ht="33" spans="1:4">
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>223</v>
       </c>
@@ -6988,7 +6455,7 @@
         <v>通过第8章-10关解锁</v>
       </c>
     </row>
-    <row r="19" ht="33" spans="1:4">
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>237</v>
       </c>
@@ -7003,7 +6470,7 @@
         <v>通过第12章-10关解锁</v>
       </c>
     </row>
-    <row r="20" ht="33" spans="1:4">
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>238</v>
       </c>
@@ -7018,7 +6485,7 @@
         <v>通过第17章-10关解锁</v>
       </c>
     </row>
-    <row r="21" ht="33" spans="1:4">
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>239</v>
       </c>
@@ -7033,7 +6500,7 @@
         <v>通过第27章-10关解锁</v>
       </c>
     </row>
-    <row r="22" ht="33" spans="1:4">
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>240</v>
       </c>
@@ -7048,7 +6515,7 @@
         <v>通过第37章-10关解锁</v>
       </c>
     </row>
-    <row r="23" ht="33" spans="1:4">
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>241</v>
       </c>
@@ -7063,7 +6530,7 @@
         <v>通过第57章-10关解锁</v>
       </c>
     </row>
-    <row r="24" ht="33" spans="1:4">
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>242</v>
       </c>
@@ -7078,7 +6545,7 @@
         <v>通过第87章-10关解锁</v>
       </c>
     </row>
-    <row r="25" ht="33" spans="1:4">
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>243</v>
       </c>
@@ -7093,7 +6560,7 @@
         <v>通过第4章-10关解锁</v>
       </c>
     </row>
-    <row r="26" ht="33" spans="1:4">
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>244</v>
       </c>
@@ -7108,7 +6575,7 @@
         <v>通过第7章-10关解锁</v>
       </c>
     </row>
-    <row r="27" ht="33" spans="1:4">
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>245</v>
       </c>
@@ -7123,7 +6590,7 @@
         <v>通过第11章-10关解锁</v>
       </c>
     </row>
-    <row r="28" ht="33" spans="1:4">
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>246</v>
       </c>
@@ -7138,7 +6605,7 @@
         <v>通过第16章-10关解锁</v>
       </c>
     </row>
-    <row r="29" ht="33" spans="1:4">
+    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>247</v>
       </c>
@@ -7153,7 +6620,7 @@
         <v>通过第26章-10关解锁</v>
       </c>
     </row>
-    <row r="30" ht="33" spans="1:4">
+    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>248</v>
       </c>
@@ -7168,7 +6635,7 @@
         <v>通过第36章-10关解锁</v>
       </c>
     </row>
-    <row r="31" ht="33" spans="1:4">
+    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>249</v>
       </c>
@@ -7183,7 +6650,7 @@
         <v>通过第56章-10关解锁</v>
       </c>
     </row>
-    <row r="32" ht="33" spans="1:4">
+    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>250</v>
       </c>
@@ -7198,7 +6665,7 @@
         <v>通过第86章-10关解锁</v>
       </c>
     </row>
-    <row r="33" ht="33" spans="1:4">
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>230</v>
       </c>
@@ -7213,7 +6680,7 @@
         <v>通过第6章-10关解锁</v>
       </c>
     </row>
-    <row r="34" ht="33" spans="1:4">
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>251</v>
       </c>
@@ -7228,7 +6695,7 @@
         <v>通过第9章-10关解锁</v>
       </c>
     </row>
-    <row r="35" ht="33" spans="1:4">
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>224</v>
       </c>
@@ -7243,7 +6710,7 @@
         <v>通过第13章-10关解锁</v>
       </c>
     </row>
-    <row r="36" ht="33" spans="1:4">
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>252</v>
       </c>
@@ -7258,7 +6725,7 @@
         <v>通过第18章-10关解锁</v>
       </c>
     </row>
-    <row r="37" ht="33" spans="1:4">
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>253</v>
       </c>
@@ -7273,7 +6740,7 @@
         <v>通过第28章-10关解锁</v>
       </c>
     </row>
-    <row r="38" ht="33" spans="1:4">
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>254</v>
       </c>
@@ -7288,7 +6755,7 @@
         <v>通过第38章-10关解锁</v>
       </c>
     </row>
-    <row r="39" ht="33" spans="1:4">
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>255</v>
       </c>
@@ -7303,7 +6770,7 @@
         <v>通过第58章-10关解锁</v>
       </c>
     </row>
-    <row r="40" ht="33" spans="1:4">
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>256</v>
       </c>
@@ -7319,7 +6786,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/Excel/dalayBtCy.日常副本.xlsx
+++ b/Excel/dalayBtCy.日常副本.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0CC4F1-D648-408D-A7A6-6F38B9BF9960}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD6DF4F-CC93-44B2-B1E2-E3D542E91A7A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20760" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1986,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AT43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2373,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="1">
-        <v>100</v>
+        <v>613.04</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -2388,7 +2388,7 @@
         <v>1</v>
       </c>
       <c r="U4" s="1">
-        <v>40</v>
+        <v>245.21600000000001</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -2398,63 +2398,63 @@
       <c r="AA4" s="1"/>
       <c r="AE4" s="1">
         <f>U4*1000^T4*0.08/2</f>
-        <v>1600</v>
+        <v>9808.64</v>
       </c>
       <c r="AF4" s="1">
         <f>U4*1000^T4*0.05/2</f>
-        <v>1000</v>
+        <v>6130.4000000000005</v>
       </c>
       <c r="AG4" s="1">
         <f>U4*1000^T4*0.1/2</f>
-        <v>2000</v>
+        <v>12260.800000000001</v>
       </c>
       <c r="AH4" s="1">
         <f>U4*1000^T4*0.2/2</f>
-        <v>4000</v>
+        <v>24521.600000000002</v>
       </c>
       <c r="AI4" s="1">
         <f>U4*1000^T4*0.5/2</f>
-        <v>10000</v>
+        <v>61304</v>
       </c>
       <c r="AK4">
         <f>AE4*0.5</f>
-        <v>800</v>
+        <v>4904.32</v>
       </c>
       <c r="AL4">
         <f>AE4*1.5</f>
-        <v>2400</v>
+        <v>14712.96</v>
       </c>
       <c r="AM4">
         <f>AF4*0.5</f>
-        <v>500</v>
+        <v>3065.2000000000003</v>
       </c>
       <c r="AN4">
         <f>AF4*1.5</f>
-        <v>1500</v>
+        <v>9195.6</v>
       </c>
       <c r="AO4">
         <f>AG4*0.5</f>
-        <v>1000</v>
+        <v>6130.4000000000005</v>
       </c>
       <c r="AP4">
         <f>AG4*1.5</f>
-        <v>3000</v>
+        <v>18391.2</v>
       </c>
       <c r="AQ4">
         <f>AH4*0.5</f>
-        <v>2000</v>
+        <v>12260.800000000001</v>
       </c>
       <c r="AR4">
         <f>AH4*1.5</f>
-        <v>6000</v>
+        <v>36782.400000000001</v>
       </c>
       <c r="AS4">
         <f>AI4*0.5</f>
-        <v>5000</v>
+        <v>30652</v>
       </c>
       <c r="AT4">
         <f>AI4*1.5</f>
-        <v>15000</v>
+        <v>91956</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2492,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="1">
-        <v>500</v>
+        <v>1243.6175000000001</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -2507,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="1">
-        <v>200</v>
+        <v>497.447</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -2517,63 +2517,63 @@
       <c r="AA5" s="1"/>
       <c r="AE5" s="1">
         <f t="shared" ref="AE5:AE10" si="0">U5*1000^T5*0.08/2</f>
-        <v>8000</v>
+        <v>19897.88</v>
       </c>
       <c r="AF5" s="1">
         <f t="shared" ref="AF5:AF10" si="1">U5*1000^T5*0.05/2</f>
-        <v>5000</v>
+        <v>12436.175000000001</v>
       </c>
       <c r="AG5" s="1">
         <f t="shared" ref="AG5:AG10" si="2">U5*1000^T5*0.1/2</f>
-        <v>10000</v>
+        <v>24872.350000000002</v>
       </c>
       <c r="AH5" s="1">
         <f t="shared" ref="AH5:AH10" si="3">U5*1000^T5*0.2/2</f>
-        <v>20000</v>
+        <v>49744.700000000004</v>
       </c>
       <c r="AI5" s="1">
         <f t="shared" ref="AI5:AI10" si="4">U5*1000^T5*0.5/2</f>
-        <v>50000</v>
+        <v>124361.75</v>
       </c>
       <c r="AK5">
         <f t="shared" ref="AK5:AK11" si="5">AE5*0.5</f>
-        <v>4000</v>
+        <v>9948.94</v>
       </c>
       <c r="AL5">
         <f t="shared" ref="AL5:AL11" si="6">AE5*1.5</f>
-        <v>12000</v>
+        <v>29846.82</v>
       </c>
       <c r="AM5">
         <f t="shared" ref="AM5:AM11" si="7">AF5*0.5</f>
-        <v>2500</v>
+        <v>6218.0875000000005</v>
       </c>
       <c r="AN5">
         <f t="shared" ref="AN5:AN11" si="8">AF5*1.5</f>
-        <v>7500</v>
+        <v>18654.262500000001</v>
       </c>
       <c r="AO5">
         <f t="shared" ref="AO5:AO11" si="9">AG5*0.5</f>
-        <v>5000</v>
+        <v>12436.175000000001</v>
       </c>
       <c r="AP5">
         <f t="shared" ref="AP5:AP11" si="10">AG5*1.5</f>
-        <v>15000</v>
+        <v>37308.525000000001</v>
       </c>
       <c r="AQ5">
         <f t="shared" ref="AQ5:AQ11" si="11">AH5*0.5</f>
-        <v>10000</v>
+        <v>24872.350000000002</v>
       </c>
       <c r="AR5">
         <f t="shared" ref="AR5:AR11" si="12">AH5*1.5</f>
-        <v>30000</v>
+        <v>74617.05</v>
       </c>
       <c r="AS5">
         <f t="shared" ref="AS5:AS11" si="13">AI5*0.5</f>
-        <v>25000</v>
+        <v>62180.875</v>
       </c>
       <c r="AT5">
         <f t="shared" ref="AT5:AT11" si="14">AI5*1.5</f>
-        <v>75000</v>
+        <v>186542.625</v>
       </c>
     </row>
     <row r="6" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2611,7 +2611,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="1">
-        <v>700</v>
+        <v>2779.7575000000002</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -2626,7 +2626,7 @@
         <v>1</v>
       </c>
       <c r="U6" s="1">
-        <v>300</v>
+        <v>1111.903</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -2636,63 +2636,63 @@
       <c r="AA6" s="1"/>
       <c r="AE6" s="1">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>44476.12</v>
       </c>
       <c r="AF6" s="1">
         <f t="shared" si="1"/>
-        <v>7500</v>
+        <v>27797.575000000001</v>
       </c>
       <c r="AG6" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>55595.15</v>
       </c>
       <c r="AH6" s="1">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>111190.3</v>
       </c>
       <c r="AI6" s="1">
         <f t="shared" si="4"/>
-        <v>75000</v>
+        <v>277975.75</v>
       </c>
       <c r="AK6">
         <f t="shared" si="5"/>
-        <v>6000</v>
+        <v>22238.06</v>
       </c>
       <c r="AL6">
         <f t="shared" si="6"/>
-        <v>18000</v>
+        <v>66714.180000000008</v>
       </c>
       <c r="AM6">
         <f t="shared" si="7"/>
-        <v>3750</v>
+        <v>13898.7875</v>
       </c>
       <c r="AN6">
         <f t="shared" si="8"/>
-        <v>11250</v>
+        <v>41696.362500000003</v>
       </c>
       <c r="AO6">
         <f t="shared" si="9"/>
-        <v>7500</v>
+        <v>27797.575000000001</v>
       </c>
       <c r="AP6">
         <f t="shared" si="10"/>
-        <v>22500</v>
+        <v>83392.725000000006</v>
       </c>
       <c r="AQ6">
         <f t="shared" si="11"/>
-        <v>15000</v>
+        <v>55595.15</v>
       </c>
       <c r="AR6">
         <f t="shared" si="12"/>
-        <v>45000</v>
+        <v>166785.45000000001</v>
       </c>
       <c r="AS6">
         <f t="shared" si="13"/>
-        <v>37500</v>
+        <v>138987.875</v>
       </c>
       <c r="AT6">
         <f t="shared" si="14"/>
-        <v>112500</v>
+        <v>416963.625</v>
       </c>
     </row>
     <row r="7" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2727,10 +2727,10 @@
         <v>97</v>
       </c>
       <c r="K7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
-        <v>2.5</v>
+        <v>6490.9350000000004</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -2742,10 +2742,10 @@
         <v>97</v>
       </c>
       <c r="T7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U7" s="1">
-        <v>1</v>
+        <v>2596.3739999999998</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -2755,63 +2755,63 @@
       <c r="AA7" s="1"/>
       <c r="AE7" s="1">
         <f t="shared" si="0"/>
-        <v>40000</v>
+        <v>103854.96</v>
       </c>
       <c r="AF7" s="1">
         <f t="shared" si="1"/>
-        <v>25000</v>
+        <v>64909.350000000006</v>
       </c>
       <c r="AG7" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>129818.70000000001</v>
       </c>
       <c r="AH7" s="1">
         <f t="shared" si="3"/>
-        <v>100000</v>
+        <v>259637.40000000002</v>
       </c>
       <c r="AI7" s="1">
         <f t="shared" si="4"/>
-        <v>250000</v>
+        <v>649093.5</v>
       </c>
       <c r="AK7">
         <f t="shared" si="5"/>
-        <v>20000</v>
+        <v>51927.48</v>
       </c>
       <c r="AL7">
         <f t="shared" si="6"/>
-        <v>60000</v>
+        <v>155782.44</v>
       </c>
       <c r="AM7">
         <f t="shared" si="7"/>
-        <v>12500</v>
+        <v>32454.675000000003</v>
       </c>
       <c r="AN7">
         <f t="shared" si="8"/>
-        <v>37500</v>
+        <v>97364.025000000009</v>
       </c>
       <c r="AO7">
         <f t="shared" si="9"/>
-        <v>25000</v>
+        <v>64909.350000000006</v>
       </c>
       <c r="AP7">
         <f t="shared" si="10"/>
-        <v>75000</v>
+        <v>194728.05000000002</v>
       </c>
       <c r="AQ7">
         <f t="shared" si="11"/>
-        <v>50000</v>
+        <v>129818.70000000001</v>
       </c>
       <c r="AR7">
         <f t="shared" si="12"/>
-        <v>150000</v>
+        <v>389456.10000000003</v>
       </c>
       <c r="AS7">
         <f t="shared" si="13"/>
-        <v>125000</v>
+        <v>324546.75</v>
       </c>
       <c r="AT7">
         <f t="shared" si="14"/>
-        <v>375000</v>
+        <v>973640.25</v>
       </c>
     </row>
     <row r="8" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2849,7 +2849,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="1">
-        <v>15</v>
+        <v>35.192790000000002</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -2864,7 +2864,7 @@
         <v>2</v>
       </c>
       <c r="U8" s="1">
-        <v>6</v>
+        <v>14.077116</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -2874,63 +2874,63 @@
       <c r="AA8" s="1"/>
       <c r="AE8" s="1">
         <f t="shared" si="0"/>
-        <v>240000</v>
+        <v>563084.64</v>
       </c>
       <c r="AF8" s="1">
         <f t="shared" si="1"/>
-        <v>150000</v>
+        <v>351927.9</v>
       </c>
       <c r="AG8" s="1">
         <f t="shared" si="2"/>
-        <v>300000</v>
+        <v>703855.8</v>
       </c>
       <c r="AH8" s="1">
         <f t="shared" si="3"/>
-        <v>600000</v>
+        <v>1407711.6</v>
       </c>
       <c r="AI8" s="1">
         <f t="shared" si="4"/>
-        <v>1500000</v>
+        <v>3519279</v>
       </c>
       <c r="AK8">
         <f t="shared" si="5"/>
-        <v>120000</v>
+        <v>281542.32</v>
       </c>
       <c r="AL8">
         <f t="shared" si="6"/>
-        <v>360000</v>
+        <v>844626.96</v>
       </c>
       <c r="AM8">
         <f t="shared" si="7"/>
-        <v>75000</v>
+        <v>175963.95</v>
       </c>
       <c r="AN8">
         <f t="shared" si="8"/>
-        <v>225000</v>
+        <v>527891.85000000009</v>
       </c>
       <c r="AO8">
         <f t="shared" si="9"/>
-        <v>150000</v>
+        <v>351927.9</v>
       </c>
       <c r="AP8">
         <f t="shared" si="10"/>
-        <v>450000</v>
+        <v>1055783.7000000002</v>
       </c>
       <c r="AQ8">
         <f t="shared" si="11"/>
-        <v>300000</v>
+        <v>703855.8</v>
       </c>
       <c r="AR8">
         <f t="shared" si="12"/>
-        <v>900000</v>
+        <v>2111567.4000000004</v>
       </c>
       <c r="AS8">
         <f t="shared" si="13"/>
-        <v>750000</v>
+        <v>1759639.5</v>
       </c>
       <c r="AT8">
         <f t="shared" si="14"/>
-        <v>2250000</v>
+        <v>5278918.5</v>
       </c>
     </row>
     <row r="9" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2968,7 +2968,7 @@
         <v>2</v>
       </c>
       <c r="L9" s="1">
-        <v>25</v>
+        <v>167.90916000000001</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2983,7 +2983,7 @@
         <v>2</v>
       </c>
       <c r="U9" s="1">
-        <v>10</v>
+        <v>67.163663999999997</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -2993,63 +2993,63 @@
       <c r="AA9" s="1"/>
       <c r="AE9" s="1">
         <f t="shared" si="0"/>
-        <v>400000</v>
+        <v>2686546.56</v>
       </c>
       <c r="AF9" s="1">
         <f t="shared" si="1"/>
-        <v>250000</v>
+        <v>1679091.6</v>
       </c>
       <c r="AG9" s="1">
         <f t="shared" si="2"/>
-        <v>500000</v>
+        <v>3358183.2</v>
       </c>
       <c r="AH9" s="1">
         <f t="shared" si="3"/>
-        <v>1000000</v>
+        <v>6716366.4000000004</v>
       </c>
       <c r="AI9" s="1">
         <f t="shared" si="4"/>
-        <v>2500000</v>
+        <v>16790916</v>
       </c>
       <c r="AK9">
         <f t="shared" si="5"/>
-        <v>200000</v>
+        <v>1343273.28</v>
       </c>
       <c r="AL9">
         <f t="shared" si="6"/>
-        <v>600000</v>
+        <v>4029819.84</v>
       </c>
       <c r="AM9">
         <f t="shared" si="7"/>
-        <v>125000</v>
+        <v>839545.8</v>
       </c>
       <c r="AN9">
         <f t="shared" si="8"/>
-        <v>375000</v>
+        <v>2518637.4000000004</v>
       </c>
       <c r="AO9">
         <f t="shared" si="9"/>
-        <v>250000</v>
+        <v>1679091.6</v>
       </c>
       <c r="AP9">
         <f t="shared" si="10"/>
-        <v>750000</v>
+        <v>5037274.8000000007</v>
       </c>
       <c r="AQ9">
         <f t="shared" si="11"/>
-        <v>500000</v>
+        <v>3358183.2</v>
       </c>
       <c r="AR9">
         <f t="shared" si="12"/>
-        <v>1500000</v>
+        <v>10074549.600000001</v>
       </c>
       <c r="AS9">
         <f t="shared" si="13"/>
-        <v>1250000</v>
+        <v>8395458</v>
       </c>
       <c r="AT9">
         <f t="shared" si="14"/>
-        <v>3750000</v>
+        <v>25186374</v>
       </c>
     </row>
     <row r="10" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3087,7 +3087,7 @@
         <v>2</v>
       </c>
       <c r="L10" s="1">
-        <v>90</v>
+        <v>589.25393999999994</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -3102,7 +3102,7 @@
         <v>2</v>
       </c>
       <c r="U10" s="1">
-        <v>35</v>
+        <v>235.70157599999999</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -3112,63 +3112,63 @@
       <c r="AA10" s="1"/>
       <c r="AE10" s="1">
         <f t="shared" si="0"/>
-        <v>1400000</v>
+        <v>9428063.040000001</v>
       </c>
       <c r="AF10" s="1">
         <f t="shared" si="1"/>
-        <v>875000</v>
+        <v>5892539.4000000004</v>
       </c>
       <c r="AG10" s="1">
         <f t="shared" si="2"/>
-        <v>1750000</v>
+        <v>11785078.800000001</v>
       </c>
       <c r="AH10" s="1">
         <f t="shared" si="3"/>
-        <v>3500000</v>
+        <v>23570157.600000001</v>
       </c>
       <c r="AI10" s="1">
         <f t="shared" si="4"/>
-        <v>8750000</v>
+        <v>58925394</v>
       </c>
       <c r="AK10">
         <f t="shared" si="5"/>
-        <v>700000</v>
+        <v>4714031.5200000005</v>
       </c>
       <c r="AL10">
         <f t="shared" si="6"/>
-        <v>2100000</v>
+        <v>14142094.560000002</v>
       </c>
       <c r="AM10">
         <f t="shared" si="7"/>
-        <v>437500</v>
+        <v>2946269.7</v>
       </c>
       <c r="AN10">
         <f t="shared" si="8"/>
-        <v>1312500</v>
+        <v>8838809.1000000015</v>
       </c>
       <c r="AO10">
         <f t="shared" si="9"/>
-        <v>875000</v>
+        <v>5892539.4000000004</v>
       </c>
       <c r="AP10">
         <f t="shared" si="10"/>
-        <v>2625000</v>
+        <v>17677618.200000003</v>
       </c>
       <c r="AQ10">
         <f t="shared" si="11"/>
-        <v>1750000</v>
+        <v>11785078.800000001</v>
       </c>
       <c r="AR10">
         <f t="shared" si="12"/>
-        <v>5250000</v>
+        <v>35355236.400000006</v>
       </c>
       <c r="AS10">
         <f t="shared" si="13"/>
-        <v>4375000</v>
+        <v>29462697</v>
       </c>
       <c r="AT10">
         <f t="shared" si="14"/>
-        <v>13125000</v>
+        <v>88388091</v>
       </c>
     </row>
     <row r="11" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3206,7 +3206,7 @@
         <v>2</v>
       </c>
       <c r="L11" s="1">
-        <v>250</v>
+        <v>1924.04079</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -3221,7 +3221,7 @@
         <v>2</v>
       </c>
       <c r="U11" s="1">
-        <v>100</v>
+        <v>769.61631599999998</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -3231,63 +3231,63 @@
       <c r="AA11" s="1"/>
       <c r="AE11" s="1">
         <f t="shared" ref="AE11" si="15">U11*1000^T11*0.08/2</f>
-        <v>4000000</v>
+        <v>30784652.640000001</v>
       </c>
       <c r="AF11" s="1">
         <f t="shared" ref="AF11" si="16">U11*1000^T11*0.05/2</f>
-        <v>2500000</v>
+        <v>19240407.900000002</v>
       </c>
       <c r="AG11" s="1">
         <f t="shared" ref="AG11" si="17">U11*1000^T11*0.1/2</f>
-        <v>5000000</v>
+        <v>38480815.800000004</v>
       </c>
       <c r="AH11" s="1">
         <f t="shared" ref="AH11" si="18">U11*1000^T11*0.2/2</f>
-        <v>10000000</v>
+        <v>76961631.600000009</v>
       </c>
       <c r="AI11" s="1">
         <f t="shared" ref="AI11" si="19">U11*1000^T11*0.5/2</f>
-        <v>25000000</v>
+        <v>192404079</v>
       </c>
       <c r="AK11">
         <f t="shared" si="5"/>
-        <v>2000000</v>
+        <v>15392326.32</v>
       </c>
       <c r="AL11">
         <f t="shared" si="6"/>
-        <v>6000000</v>
+        <v>46176978.960000001</v>
       </c>
       <c r="AM11">
         <f t="shared" si="7"/>
-        <v>1250000</v>
+        <v>9620203.9500000011</v>
       </c>
       <c r="AN11">
         <f t="shared" si="8"/>
-        <v>3750000</v>
+        <v>28860611.850000001</v>
       </c>
       <c r="AO11">
         <f t="shared" si="9"/>
-        <v>2500000</v>
+        <v>19240407.900000002</v>
       </c>
       <c r="AP11">
         <f t="shared" si="10"/>
-        <v>7500000</v>
+        <v>57721223.700000003</v>
       </c>
       <c r="AQ11">
         <f t="shared" si="11"/>
-        <v>5000000</v>
+        <v>38480815.800000004</v>
       </c>
       <c r="AR11">
         <f t="shared" si="12"/>
-        <v>15000000</v>
+        <v>115442447.40000001</v>
       </c>
       <c r="AS11">
         <f t="shared" si="13"/>
-        <v>12500000</v>
+        <v>96202039.5</v>
       </c>
       <c r="AT11">
         <f t="shared" si="14"/>
-        <v>37500000</v>
+        <v>288606118.5</v>
       </c>
     </row>
     <row r="12" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">

--- a/Excel/dalayBtCy.日常副本.xlsx
+++ b/Excel/dalayBtCy.日常副本.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD6DF4F-CC93-44B2-B1E2-E3D542E91A7A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66114ECF-5B01-487E-97C6-866A91B9F1FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20760" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="258">
   <si>
     <t>sheet名</t>
   </si>
@@ -1345,6 +1345,10 @@
   </si>
   <si>
     <t>第88章-10关</t>
+  </si>
+  <si>
+    <t>40,110,175,300</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1541,7 +1545,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
@@ -1560,6 +1564,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1986,8 +1993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AT43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2363,8 +2370,8 @@
       <c r="H4" s="1">
         <v>150</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>96</v>
+      <c r="I4" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>97</v>
@@ -2482,8 +2489,8 @@
       <c r="H5" s="1">
         <v>150</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>96</v>
+      <c r="I5" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>97</v>
@@ -2601,8 +2608,8 @@
       <c r="H6" s="1">
         <v>150</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>96</v>
+      <c r="I6" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>97</v>
@@ -2720,8 +2727,8 @@
       <c r="H7" s="1">
         <v>150</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>96</v>
+      <c r="I7" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>97</v>
@@ -2839,8 +2846,8 @@
       <c r="H8" s="1">
         <v>150</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>96</v>
+      <c r="I8" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>97</v>
@@ -2958,8 +2965,8 @@
       <c r="H9" s="1">
         <v>150</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>96</v>
+      <c r="I9" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>97</v>
@@ -3077,8 +3084,8 @@
       <c r="H10" s="1">
         <v>150</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>96</v>
+      <c r="I10" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>97</v>
@@ -3196,8 +3203,8 @@
       <c r="H11" s="1">
         <v>150</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>96</v>
+      <c r="I11" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>97</v>

--- a/Excel/dalayBtCy.日常副本.xlsx
+++ b/Excel/dalayBtCy.日常副本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66114ECF-5B01-487E-97C6-866A91B9F1FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C523CCF9-74A1-486B-8ACA-3A00F2917533}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20760" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1991,10 +1991,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AT43"/>
+  <dimension ref="A1:AT44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
@@ -3357,23 +3357,23 @@
       <c r="AA12" s="1"/>
       <c r="AE12" s="1">
         <f t="shared" ref="AE12:AE27" si="20">U12*1000^T12*0.08/2</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AF12" s="1">
         <f t="shared" ref="AF12:AF27" si="21">U12*1000^T12*0.05/2</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="AG12" s="1">
         <f t="shared" ref="AG12:AG27" si="22">U12*1000^T12*0.1/2</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AH12" s="1">
         <f t="shared" ref="AH12:AH27" si="23">U12*1000^T12*0.2/2</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI12" s="1">
         <f t="shared" ref="AI12:AI27" si="24">U12*1000^T12*0.5/2</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -3436,23 +3436,23 @@
       <c r="AA13" s="1"/>
       <c r="AE13" s="1">
         <f t="shared" si="20"/>
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AF13" s="1">
         <f t="shared" si="21"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AG13" s="1">
         <f t="shared" si="22"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH13" s="1">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI13" s="1">
         <f t="shared" si="24"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -3515,23 +3515,23 @@
       <c r="AA14" s="1"/>
       <c r="AE14" s="1">
         <f t="shared" si="20"/>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="AF14" s="1">
         <f t="shared" si="21"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG14" s="1">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH14" s="1">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI14" s="1">
         <f t="shared" si="24"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -3594,23 +3594,23 @@
       <c r="AA15" s="1"/>
       <c r="AE15" s="1">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF15" s="1">
         <f t="shared" si="21"/>
-        <v>0.625</v>
+        <v>1.25</v>
       </c>
       <c r="AG15" s="1">
         <f t="shared" si="22"/>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="AH15" s="1">
         <f t="shared" si="23"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="AI15" s="1">
         <f t="shared" si="24"/>
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="16" spans="1:46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -3673,23 +3673,23 @@
       <c r="AA16" s="1"/>
       <c r="AE16" s="1">
         <f t="shared" si="20"/>
-        <v>1.4000000000000001</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="AF16" s="1">
         <f t="shared" si="21"/>
-        <v>0.875</v>
+        <v>1.75</v>
       </c>
       <c r="AG16" s="1">
         <f t="shared" si="22"/>
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="AH16" s="1">
         <f t="shared" si="23"/>
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="AI16" s="1">
         <f t="shared" si="24"/>
-        <v>8.75</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -3752,23 +3752,23 @@
       <c r="AA17" s="1"/>
       <c r="AE17" s="1">
         <f t="shared" si="20"/>
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="AF17" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG17" s="1">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH17" s="1">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI17" s="1">
         <f t="shared" si="24"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="1">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -3831,23 +3831,23 @@
       <c r="AA18" s="1"/>
       <c r="AE18" s="1">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF18" s="1">
         <f t="shared" si="21"/>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="AG18" s="1">
         <f t="shared" si="22"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="AH18" s="1">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AI18" s="1">
         <f t="shared" si="24"/>
-        <v>12.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
@@ -3910,23 +3910,23 @@
       <c r="AA19" s="1"/>
       <c r="AE19" s="1">
         <f t="shared" si="20"/>
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="AF19" s="1">
         <f t="shared" si="21"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AG19" s="1">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AH19" s="1">
         <f t="shared" si="23"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AI19" s="1">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="1">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
@@ -3989,23 +3989,23 @@
       <c r="AA20" s="1"/>
       <c r="AE20" s="1">
         <f t="shared" si="20"/>
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AF20" s="1">
         <f t="shared" si="21"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AG20" s="1">
         <f t="shared" si="22"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH20" s="1">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI20" s="1">
         <f t="shared" si="24"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
@@ -4068,23 +4068,23 @@
       <c r="AA21" s="1"/>
       <c r="AE21" s="1">
         <f t="shared" si="20"/>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="AF21" s="1">
         <f t="shared" si="21"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG21" s="1">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH21" s="1">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI21" s="1">
         <f t="shared" si="24"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="1">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
@@ -4147,23 +4147,23 @@
       <c r="AA22" s="1"/>
       <c r="AE22" s="1">
         <f t="shared" si="20"/>
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="AF22" s="1">
         <f t="shared" si="21"/>
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="AG22" s="1">
         <f t="shared" si="22"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AH22" s="1">
         <f t="shared" si="23"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AI22" s="1">
         <f t="shared" si="24"/>
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="1">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
@@ -4226,23 +4226,23 @@
       <c r="AA23" s="1"/>
       <c r="AE23" s="1">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF23" s="1">
         <f t="shared" si="21"/>
-        <v>0.625</v>
+        <v>1.25</v>
       </c>
       <c r="AG23" s="1">
         <f t="shared" si="22"/>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="AH23" s="1">
         <f t="shared" si="23"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="AI23" s="1">
         <f t="shared" si="24"/>
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
@@ -4305,23 +4305,23 @@
       <c r="AA24" s="1"/>
       <c r="AE24" s="1">
         <f t="shared" si="20"/>
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="AF24" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG24" s="1">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH24" s="1">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI24" s="1">
         <f t="shared" si="24"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
@@ -4384,23 +4384,23 @@
       <c r="AA25" s="1"/>
       <c r="AE25" s="1">
         <f t="shared" si="20"/>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="AF25" s="1">
         <f t="shared" si="21"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG25" s="1">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH25" s="1">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI25" s="1">
         <f t="shared" si="24"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="1">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
@@ -4463,23 +4463,23 @@
       <c r="AA26" s="1"/>
       <c r="AE26" s="1">
         <f t="shared" si="20"/>
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="AF26" s="1">
         <f t="shared" si="21"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AG26" s="1">
         <f t="shared" si="22"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AH26" s="1">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AI26" s="1">
         <f t="shared" si="24"/>
-        <v>7.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4517,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
@@ -4542,23 +4542,23 @@
       <c r="AA27" s="1"/>
       <c r="AE27" s="1">
         <f t="shared" si="20"/>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="AF27" s="1">
         <f t="shared" si="21"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG27" s="1">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH27" s="1">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI27" s="1">
         <f t="shared" si="24"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4596,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="1">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -4611,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
@@ -4621,23 +4621,23 @@
       <c r="AA28" s="1"/>
       <c r="AE28" s="1">
         <f t="shared" ref="AE28:AE35" si="25">U28*1000^T28*0.08/2</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AF28" s="1">
         <f t="shared" ref="AF28:AF35" si="26">U28*1000^T28*0.05/2</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="AG28" s="1">
         <f t="shared" ref="AG28:AG35" si="27">U28*1000^T28*0.1/2</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AH28" s="1">
         <f t="shared" ref="AH28:AH35" si="28">U28*1000^T28*0.2/2</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI28" s="1">
         <f t="shared" ref="AI28:AI35" si="29">U28*1000^T28*0.5/2</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="1">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
@@ -4700,23 +4700,23 @@
       <c r="AA29" s="1"/>
       <c r="AE29" s="1">
         <f t="shared" si="25"/>
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AF29" s="1">
         <f t="shared" si="26"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AG29" s="1">
         <f t="shared" si="27"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH29" s="1">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI29" s="1">
         <f t="shared" si="29"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
@@ -4779,23 +4779,23 @@
       <c r="AA30" s="1"/>
       <c r="AE30" s="1">
         <f t="shared" si="25"/>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="AF30" s="1">
         <f t="shared" si="26"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG30" s="1">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH30" s="1">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI30" s="1">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="1">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -4848,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="1">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
@@ -4858,23 +4858,23 @@
       <c r="AA31" s="1"/>
       <c r="AE31" s="1">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF31" s="1">
         <f t="shared" si="26"/>
-        <v>0.625</v>
+        <v>1.25</v>
       </c>
       <c r="AG31" s="1">
         <f t="shared" si="27"/>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="AH31" s="1">
         <f t="shared" si="28"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="AI31" s="1">
         <f t="shared" si="29"/>
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="32" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="1">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="1">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
@@ -4937,23 +4937,23 @@
       <c r="AA32" s="1"/>
       <c r="AE32" s="1">
         <f t="shared" si="25"/>
-        <v>1.4000000000000001</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="AF32" s="1">
         <f t="shared" si="26"/>
-        <v>0.875</v>
+        <v>1.75</v>
       </c>
       <c r="AG32" s="1">
         <f t="shared" si="27"/>
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="AH32" s="1">
         <f t="shared" si="28"/>
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="AI32" s="1">
         <f t="shared" si="29"/>
-        <v>8.75</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="33" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4991,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
@@ -5016,23 +5016,23 @@
       <c r="AA33" s="1"/>
       <c r="AE33" s="1">
         <f t="shared" si="25"/>
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="AF33" s="1">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG33" s="1">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH33" s="1">
         <f t="shared" si="28"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI33" s="1">
         <f t="shared" si="29"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5070,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="1">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -5085,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
@@ -5095,23 +5095,23 @@
       <c r="AA34" s="1"/>
       <c r="AE34" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF34" s="1">
         <f t="shared" si="26"/>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="AG34" s="1">
         <f t="shared" si="27"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="AH34" s="1">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AI34" s="1">
         <f t="shared" si="29"/>
-        <v>12.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="1">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
@@ -5174,23 +5174,23 @@
       <c r="AA35" s="1"/>
       <c r="AE35" s="1">
         <f t="shared" si="25"/>
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="AF35" s="1">
         <f t="shared" si="26"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AG35" s="1">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AH35" s="1">
         <f t="shared" si="28"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AI35" s="1">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="1">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
@@ -5253,23 +5253,23 @@
       <c r="AA36" s="1"/>
       <c r="AE36" s="1">
         <f t="shared" ref="AE36:AE37" si="30">U36*1000^T36*0.08/2</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AF36" s="1">
         <f t="shared" ref="AF36:AF37" si="31">U36*1000^T36*0.05/2</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="AG36" s="1">
         <f t="shared" ref="AG36:AG37" si="32">U36*1000^T36*0.1/2</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AH36" s="1">
         <f t="shared" ref="AH36:AH37" si="33">U36*1000^T36*0.2/2</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI36" s="1">
         <f t="shared" ref="AI36:AI37" si="34">U36*1000^T36*0.5/2</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="37" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5307,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="1">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -5322,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
@@ -5332,23 +5332,23 @@
       <c r="AA37" s="1"/>
       <c r="AE37" s="1">
         <f t="shared" si="30"/>
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AF37" s="1">
         <f t="shared" si="31"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AG37" s="1">
         <f t="shared" si="32"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH37" s="1">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI37" s="1">
         <f t="shared" si="34"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
@@ -5411,23 +5411,23 @@
       <c r="AA38" s="1"/>
       <c r="AE38" s="1">
         <f t="shared" ref="AE38:AE43" si="35">U38*1000^T38*0.08/2</f>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="AF38" s="1">
         <f t="shared" ref="AF38:AF43" si="36">U38*1000^T38*0.05/2</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG38" s="1">
         <f t="shared" ref="AG38:AG43" si="37">U38*1000^T38*0.1/2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH38" s="1">
         <f t="shared" ref="AH38:AH43" si="38">U38*1000^T38*0.2/2</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI38" s="1">
         <f t="shared" ref="AI38:AI43" si="39">U38*1000^T38*0.5/2</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5465,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="1">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="1">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
@@ -5490,23 +5490,23 @@
       <c r="AA39" s="1"/>
       <c r="AE39" s="1">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF39" s="1">
         <f t="shared" si="36"/>
-        <v>0.625</v>
+        <v>1.25</v>
       </c>
       <c r="AG39" s="1">
         <f t="shared" si="37"/>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="AH39" s="1">
         <f t="shared" si="38"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="AI39" s="1">
         <f t="shared" si="39"/>
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="40" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="1">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="U40" s="1">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
@@ -5569,23 +5569,23 @@
       <c r="AA40" s="1"/>
       <c r="AE40" s="1">
         <f t="shared" si="35"/>
-        <v>1.4000000000000001</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="AF40" s="1">
         <f t="shared" si="36"/>
-        <v>0.875</v>
+        <v>1.75</v>
       </c>
       <c r="AG40" s="1">
         <f t="shared" si="37"/>
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="AH40" s="1">
         <f t="shared" si="38"/>
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="AI40" s="1">
         <f t="shared" si="39"/>
-        <v>8.75</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="41" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5623,7 +5623,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -5638,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
@@ -5648,23 +5648,23 @@
       <c r="AA41" s="1"/>
       <c r="AE41" s="1">
         <f t="shared" si="35"/>
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="AF41" s="1">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG41" s="1">
         <f t="shared" si="37"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH41" s="1">
         <f t="shared" si="38"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI41" s="1">
         <f t="shared" si="39"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="1">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
@@ -5727,23 +5727,23 @@
       <c r="AA42" s="1"/>
       <c r="AE42" s="1">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF42" s="1">
         <f t="shared" si="36"/>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="AG42" s="1">
         <f t="shared" si="37"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="AH42" s="1">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AI42" s="1">
         <f t="shared" si="39"/>
-        <v>12.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="1">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -5796,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
@@ -5806,29 +5806,32 @@
       <c r="AA43" s="1"/>
       <c r="AE43" s="1">
         <f t="shared" si="35"/>
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="AF43" s="1">
         <f t="shared" si="36"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AG43" s="1">
         <f t="shared" si="37"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AH43" s="1">
         <f t="shared" si="38"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AI43" s="1">
         <f t="shared" si="39"/>
-        <v>15</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="V44" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Excel/dalayBtCy.日常副本.xlsx
+++ b/Excel/dalayBtCy.日常副本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C523CCF9-74A1-486B-8ACA-3A00F2917533}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C04EC2-11CE-4930-9581-095BDAFABA05}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20760" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1347,7 +1347,7 @@
     <t>第88章-10关</t>
   </si>
   <si>
-    <t>40,110,175,300</t>
+    <t>40,90,155,280</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1993,8 +1993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AT44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/dalayBtCy.日常副本.xlsx
+++ b/Excel/dalayBtCy.日常副本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C04EC2-11CE-4930-9581-095BDAFABA05}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7307958C-0BA5-4820-B50A-279C50519D80}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20760" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1994,7 +1994,7 @@
   <dimension ref="A1:AT44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H4" sqref="H4:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/dalayBtCy.日常副本.xlsx
+++ b/Excel/dalayBtCy.日常副本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7307958C-0BA5-4820-B50A-279C50519D80}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0154FD5D-4A5A-452C-BD34-884888F7844D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20760" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20760" windowHeight="11610" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="258">
   <si>
     <t>sheet名</t>
   </si>
@@ -1119,9 +1119,6 @@
     <t>daily-jb</t>
   </si>
   <si>
-    <t>20,30,50</t>
-  </si>
-  <si>
     <t>智慧机体副本</t>
   </si>
   <si>
@@ -1348,6 +1345,10 @@
   </si>
   <si>
     <t>40,90,155,280</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,50,80</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1545,7 +1546,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
@@ -1566,6 +1567,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1993,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AT44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2371,7 +2375,7 @@
         <v>150</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>97</v>
@@ -2490,7 +2494,7 @@
         <v>150</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>97</v>
@@ -2609,7 +2613,7 @@
         <v>150</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>97</v>
@@ -2728,7 +2732,7 @@
         <v>150</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>97</v>
@@ -2847,7 +2851,7 @@
         <v>150</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>97</v>
@@ -2966,7 +2970,7 @@
         <v>150</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>97</v>
@@ -3085,7 +3089,7 @@
         <v>150</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>97</v>
@@ -3204,7 +3208,7 @@
         <v>150</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>97</v>
@@ -5837,10 +5841,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5852,27 +5856,27 @@
     <col min="7" max="7" width="13.125" customWidth="1"/>
     <col min="8" max="8" width="13.375" customWidth="1"/>
     <col min="9" max="9" width="19.5" customWidth="1"/>
-    <col min="10" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="15.625" customWidth="1"/>
-    <col min="20" max="20" width="22.125" customWidth="1"/>
-    <col min="21" max="21" width="22.25" customWidth="1"/>
-    <col min="22" max="22" width="22.375" customWidth="1"/>
-    <col min="23" max="23" width="21.625" customWidth="1"/>
-    <col min="24" max="24" width="25.125" customWidth="1"/>
-    <col min="25" max="25" width="23.5" customWidth="1"/>
-    <col min="26" max="26" width="19.875" customWidth="1"/>
-    <col min="27" max="27" width="23.75" customWidth="1"/>
-    <col min="28" max="29" width="23.25" customWidth="1"/>
-    <col min="30" max="30" width="22.25" customWidth="1"/>
-    <col min="31" max="31" width="23" customWidth="1"/>
-    <col min="32" max="32" width="21" customWidth="1"/>
-    <col min="33" max="33" width="22.5" customWidth="1"/>
-    <col min="34" max="35" width="20.625" customWidth="1"/>
-    <col min="36" max="36" width="25.625" customWidth="1"/>
-    <col min="37" max="37" width="23.375" customWidth="1"/>
+    <col min="10" max="14" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="15.625" customWidth="1"/>
+    <col min="23" max="23" width="22.125" customWidth="1"/>
+    <col min="24" max="24" width="22.25" customWidth="1"/>
+    <col min="25" max="25" width="22.375" customWidth="1"/>
+    <col min="26" max="26" width="21.625" customWidth="1"/>
+    <col min="27" max="27" width="25.125" customWidth="1"/>
+    <col min="28" max="28" width="23.5" customWidth="1"/>
+    <col min="29" max="29" width="19.875" customWidth="1"/>
+    <col min="30" max="30" width="23.75" customWidth="1"/>
+    <col min="31" max="32" width="23.25" customWidth="1"/>
+    <col min="33" max="33" width="22.25" customWidth="1"/>
+    <col min="34" max="34" width="23" customWidth="1"/>
+    <col min="35" max="35" width="21" customWidth="1"/>
+    <col min="36" max="36" width="22.5" customWidth="1"/>
+    <col min="37" max="38" width="20.625" customWidth="1"/>
+    <col min="39" max="39" width="25.625" customWidth="1"/>
+    <col min="40" max="40" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -5909,8 +5913,15 @@
       <c r="L1" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -5947,8 +5958,14 @@
       <c r="L2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
@@ -5985,8 +6002,15 @@
       <c r="L3" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -6018,13 +6042,20 @@
         <v>2</v>
       </c>
       <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
         <v>3</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="O4" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="33" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -6032,16 +6063,16 @@
         <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="G5" s="1">
         <v>20</v>
@@ -6056,13 +6087,20 @@
         <v>2</v>
       </c>
       <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1">
         <v>3</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="O5" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="33" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -6070,16 +6108,16 @@
         <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="G6" s="1">
         <v>50</v>
@@ -6094,13 +6132,20 @@
         <v>2</v>
       </c>
       <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1">
         <v>3</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="O6" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="33" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -6108,16 +6153,16 @@
         <v>104</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="G7" s="1">
         <v>40</v>
@@ -6132,13 +6177,20 @@
         <v>2</v>
       </c>
       <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1">
         <v>3</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.2">
+      <c r="O7" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="33" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -6146,16 +6198,16 @@
         <v>105</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="G8" s="1">
         <v>80</v>
@@ -6170,10 +6222,17 @@
         <v>2</v>
       </c>
       <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1">
         <v>3</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>210</v>
+      <c r="O8" s="4" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -6197,13 +6256,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" t="s">
         <v>219</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>220</v>
-      </c>
-      <c r="C1" t="s">
-        <v>221</v>
       </c>
       <c r="D1" t="str">
         <f>B1&amp;A1&amp;C1</f>
@@ -6212,13 +6271,13 @@
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" t="s">
         <v>220</v>
-      </c>
-      <c r="C2" t="s">
-        <v>221</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D40" si="0">B2&amp;A2&amp;C2</f>
@@ -6227,13 +6286,13 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" t="s">
         <v>220</v>
-      </c>
-      <c r="C3" t="s">
-        <v>221</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -6242,13 +6301,13 @@
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" t="s">
         <v>220</v>
-      </c>
-      <c r="C4" t="s">
-        <v>221</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -6257,13 +6316,13 @@
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" t="s">
         <v>220</v>
-      </c>
-      <c r="C5" t="s">
-        <v>221</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -6272,13 +6331,13 @@
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" t="s">
         <v>220</v>
-      </c>
-      <c r="C6" t="s">
-        <v>221</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -6287,13 +6346,13 @@
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" t="s">
         <v>220</v>
-      </c>
-      <c r="C7" t="s">
-        <v>221</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -6302,13 +6361,13 @@
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" t="s">
         <v>220</v>
-      </c>
-      <c r="C8" t="s">
-        <v>221</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -6317,13 +6376,13 @@
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" t="s">
         <v>220</v>
-      </c>
-      <c r="C9" t="s">
-        <v>221</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -6332,13 +6391,13 @@
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" t="s">
         <v>220</v>
-      </c>
-      <c r="C10" t="s">
-        <v>221</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -6347,13 +6406,13 @@
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" t="s">
         <v>220</v>
-      </c>
-      <c r="C11" t="s">
-        <v>221</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -6362,13 +6421,13 @@
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" t="s">
         <v>220</v>
-      </c>
-      <c r="C12" t="s">
-        <v>221</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -6377,13 +6436,13 @@
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" t="s">
         <v>220</v>
-      </c>
-      <c r="C13" t="s">
-        <v>221</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -6392,13 +6451,13 @@
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" t="s">
         <v>220</v>
-      </c>
-      <c r="C14" t="s">
-        <v>221</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -6407,13 +6466,13 @@
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" t="s">
         <v>220</v>
-      </c>
-      <c r="C15" t="s">
-        <v>221</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -6422,13 +6481,13 @@
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" t="s">
         <v>220</v>
-      </c>
-      <c r="C16" t="s">
-        <v>221</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -6437,13 +6496,13 @@
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" t="s">
         <v>220</v>
-      </c>
-      <c r="C17" t="s">
-        <v>221</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -6452,13 +6511,13 @@
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" t="s">
         <v>220</v>
-      </c>
-      <c r="C18" t="s">
-        <v>221</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -6467,13 +6526,13 @@
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" t="s">
         <v>220</v>
-      </c>
-      <c r="C19" t="s">
-        <v>221</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -6482,13 +6541,13 @@
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" t="s">
         <v>220</v>
-      </c>
-      <c r="C20" t="s">
-        <v>221</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -6497,13 +6556,13 @@
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" t="s">
         <v>220</v>
-      </c>
-      <c r="C21" t="s">
-        <v>221</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -6512,13 +6571,13 @@
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" t="s">
         <v>220</v>
-      </c>
-      <c r="C22" t="s">
-        <v>221</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -6527,13 +6586,13 @@
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" t="s">
         <v>220</v>
-      </c>
-      <c r="C23" t="s">
-        <v>221</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -6542,13 +6601,13 @@
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" t="s">
         <v>220</v>
-      </c>
-      <c r="C24" t="s">
-        <v>221</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -6557,13 +6616,13 @@
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" t="s">
         <v>220</v>
-      </c>
-      <c r="C25" t="s">
-        <v>221</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -6572,13 +6631,13 @@
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" t="s">
         <v>220</v>
-      </c>
-      <c r="C26" t="s">
-        <v>221</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -6587,13 +6646,13 @@
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" t="s">
         <v>220</v>
-      </c>
-      <c r="C27" t="s">
-        <v>221</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -6602,13 +6661,13 @@
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" t="s">
         <v>220</v>
-      </c>
-      <c r="C28" t="s">
-        <v>221</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -6617,13 +6676,13 @@
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" t="s">
         <v>220</v>
-      </c>
-      <c r="C29" t="s">
-        <v>221</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -6632,13 +6691,13 @@
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B30" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" t="s">
         <v>220</v>
-      </c>
-      <c r="C30" t="s">
-        <v>221</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -6647,13 +6706,13 @@
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B31" t="s">
+        <v>219</v>
+      </c>
+      <c r="C31" t="s">
         <v>220</v>
-      </c>
-      <c r="C31" t="s">
-        <v>221</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -6662,13 +6721,13 @@
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B32" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" t="s">
         <v>220</v>
-      </c>
-      <c r="C32" t="s">
-        <v>221</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -6677,13 +6736,13 @@
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" t="s">
         <v>220</v>
-      </c>
-      <c r="C33" t="s">
-        <v>221</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
@@ -6692,13 +6751,13 @@
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" t="s">
         <v>220</v>
-      </c>
-      <c r="C34" t="s">
-        <v>221</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
@@ -6707,13 +6766,13 @@
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" t="s">
         <v>220</v>
-      </c>
-      <c r="C35" t="s">
-        <v>221</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -6722,13 +6781,13 @@
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B36" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" t="s">
         <v>220</v>
-      </c>
-      <c r="C36" t="s">
-        <v>221</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
@@ -6737,13 +6796,13 @@
     </row>
     <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B37" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" t="s">
         <v>220</v>
-      </c>
-      <c r="C37" t="s">
-        <v>221</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -6752,13 +6811,13 @@
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B38" t="s">
+        <v>219</v>
+      </c>
+      <c r="C38" t="s">
         <v>220</v>
-      </c>
-      <c r="C38" t="s">
-        <v>221</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -6767,13 +6826,13 @@
     </row>
     <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B39" t="s">
+        <v>219</v>
+      </c>
+      <c r="C39" t="s">
         <v>220</v>
-      </c>
-      <c r="C39" t="s">
-        <v>221</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -6782,13 +6841,13 @@
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B40" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" t="s">
         <v>220</v>
-      </c>
-      <c r="C40" t="s">
-        <v>221</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>

--- a/Excel/dalayBtCy.日常副本.xlsx
+++ b/Excel/dalayBtCy.日常副本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0154FD5D-4A5A-452C-BD34-884888F7844D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152CF35A-A707-498C-93E9-3659F75D6521}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20760" windowHeight="11610" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20760" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1997,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AT44"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5843,7 +5843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>

--- a/Excel/dalayBtCy.日常副本.xlsx
+++ b/Excel/dalayBtCy.日常副本.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152CF35A-A707-498C-93E9-3659F75D6521}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20760" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20760" windowHeight="11610" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
-    <sheet name="日常本" sheetId="28" r:id="rId2"/>
-    <sheet name="日常本类型" sheetId="29" r:id="rId3"/>
+    <sheet name="日常本类型" sheetId="29" r:id="rId2"/>
+    <sheet name="日常本" sheetId="28" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="30" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -1355,7 +1354,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1574,19 +1573,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="7"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="常规 2" xfId="8"/>
+    <cellStyle name="超链接 2" xfId="9"/>
+    <cellStyle name="大标题" xfId="6"/>
+    <cellStyle name="横向标题" xfId="1"/>
+    <cellStyle name="文本" xfId="10"/>
+    <cellStyle name="无效" xfId="11"/>
+    <cellStyle name="因变Grid" xfId="3"/>
+    <cellStyle name="英文标题" xfId="2"/>
+    <cellStyle name="中文标题" xfId="12"/>
+    <cellStyle name="纵向标题" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1858,7 +1857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1994,10 +1993,412 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="10" max="14" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="15.625" customWidth="1"/>
+    <col min="23" max="23" width="22.125" customWidth="1"/>
+    <col min="24" max="24" width="22.25" customWidth="1"/>
+    <col min="25" max="25" width="22.375" customWidth="1"/>
+    <col min="26" max="26" width="21.625" customWidth="1"/>
+    <col min="27" max="27" width="25.125" customWidth="1"/>
+    <col min="28" max="28" width="23.5" customWidth="1"/>
+    <col min="29" max="29" width="19.875" customWidth="1"/>
+    <col min="30" max="30" width="23.75" customWidth="1"/>
+    <col min="31" max="32" width="23.25" customWidth="1"/>
+    <col min="33" max="33" width="22.25" customWidth="1"/>
+    <col min="34" max="34" width="23" customWidth="1"/>
+    <col min="35" max="35" width="21" customWidth="1"/>
+    <col min="36" max="36" width="22.5" customWidth="1"/>
+    <col min="37" max="38" width="20.625" customWidth="1"/>
+    <col min="39" max="39" width="25.625" customWidth="1"/>
+    <col min="40" max="40" width="23.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>101</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" s="1">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
+        <v>3</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>102</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="1">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1">
+        <v>40</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1">
+        <v>3</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" s="1">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1">
+        <v>70</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1">
+        <v>3</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>104</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="1">
+        <v>40</v>
+      </c>
+      <c r="H7" s="1">
+        <v>50</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1">
+        <v>3</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>105</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8" s="1">
+        <v>80</v>
+      </c>
+      <c r="H8" s="1">
+        <v>90</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1">
+        <v>3</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -5839,410 +6240,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
-    <col min="9" max="9" width="19.5" customWidth="1"/>
-    <col min="10" max="14" width="11.5" customWidth="1"/>
-    <col min="15" max="15" width="15.625" customWidth="1"/>
-    <col min="23" max="23" width="22.125" customWidth="1"/>
-    <col min="24" max="24" width="22.25" customWidth="1"/>
-    <col min="25" max="25" width="22.375" customWidth="1"/>
-    <col min="26" max="26" width="21.625" customWidth="1"/>
-    <col min="27" max="27" width="25.125" customWidth="1"/>
-    <col min="28" max="28" width="23.5" customWidth="1"/>
-    <col min="29" max="29" width="19.875" customWidth="1"/>
-    <col min="30" max="30" width="23.75" customWidth="1"/>
-    <col min="31" max="32" width="23.25" customWidth="1"/>
-    <col min="33" max="33" width="22.25" customWidth="1"/>
-    <col min="34" max="34" width="23" customWidth="1"/>
-    <col min="35" max="35" width="21" customWidth="1"/>
-    <col min="36" max="36" width="22.5" customWidth="1"/>
-    <col min="37" max="38" width="20.625" customWidth="1"/>
-    <col min="39" max="39" width="25.625" customWidth="1"/>
-    <col min="40" max="40" width="23.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>101</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G4" s="1">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1">
-        <v>30</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1">
-        <v>3</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>102</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G5" s="1">
-        <v>20</v>
-      </c>
-      <c r="H5" s="1">
-        <v>40</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1">
-        <v>3</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="33" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>103</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G6" s="1">
-        <v>50</v>
-      </c>
-      <c r="H6" s="1">
-        <v>70</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1">
-        <v>3</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="33" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>104</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G7" s="1">
-        <v>40</v>
-      </c>
-      <c r="H7" s="1">
-        <v>50</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1">
-        <v>3</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="33" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>105</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G8" s="1">
-        <v>80</v>
-      </c>
-      <c r="H8" s="1">
-        <v>90</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J8" s="1">
-        <v>2</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1">
-        <v>3</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
